--- a/CATI/saved_states/NABIL_backtest_results.xlsx
+++ b/CATI/saved_states/NABIL_backtest_results.xlsx
@@ -462,7 +462,7 @@
         <v>480.1300000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>488.2888680920004</v>
+        <v>487.4708272516727</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         <v>481.3100000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>484.3224927634</v>
+        <v>485.0089222639799</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>485.09</v>
       </c>
       <c r="C4" t="n">
-        <v>484.1319206058978</v>
+        <v>486.2778202593326</v>
       </c>
     </row>
     <row r="5">
@@ -495,7 +495,7 @@
         <v>485.96</v>
       </c>
       <c r="C5" t="n">
-        <v>484.1481761336326</v>
+        <v>487.6072993129491</v>
       </c>
     </row>
     <row r="6">
@@ -506,7 +506,7 @@
         <v>484.56</v>
       </c>
       <c r="C6" t="n">
-        <v>485.395819760859</v>
+        <v>489.6973776966333</v>
       </c>
     </row>
     <row r="7">
@@ -517,7 +517,7 @@
         <v>485.26</v>
       </c>
       <c r="C7" t="n">
-        <v>484.108881317079</v>
+        <v>488.6415333598852</v>
       </c>
     </row>
     <row r="8">
@@ -528,7 +528,7 @@
         <v>488.73</v>
       </c>
       <c r="C8" t="n">
-        <v>486.8601825088262</v>
+        <v>491.3939023166894</v>
       </c>
     </row>
     <row r="9">
@@ -539,7 +539,7 @@
         <v>486.97</v>
       </c>
       <c r="C9" t="n">
-        <v>489.7955908328294</v>
+        <v>494.4378880038857</v>
       </c>
     </row>
     <row r="10">
@@ -550,7 +550,7 @@
         <v>484.65</v>
       </c>
       <c r="C10" t="n">
-        <v>490.261189520359</v>
+        <v>494.8273885101079</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         <v>486.27</v>
       </c>
       <c r="C11" t="n">
-        <v>489.1639679595827</v>
+        <v>493.3323580622672</v>
       </c>
     </row>
     <row r="12">
@@ -572,7 +572,7 @@
         <v>485.97</v>
       </c>
       <c r="C12" t="n">
-        <v>492.091487571597</v>
+        <v>496.5318496525287</v>
       </c>
     </row>
     <row r="13">
@@ -583,7 +583,7 @@
         <v>486.97</v>
       </c>
       <c r="C13" t="n">
-        <v>495.1979773566126</v>
+        <v>499.8879361599683</v>
       </c>
     </row>
     <row r="14">
@@ -594,7 +594,7 @@
         <v>487.96</v>
       </c>
       <c r="C14" t="n">
-        <v>495.8336747363209</v>
+        <v>500.7219191044568</v>
       </c>
     </row>
     <row r="15">
@@ -605,7 +605,7 @@
         <v>489.3100000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>495.1343948692083</v>
+        <v>499.7592837512493</v>
       </c>
     </row>
     <row r="16">
@@ -616,7 +616,7 @@
         <v>494.3800000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>500.5218273699283</v>
+        <v>505.2622048705816</v>
       </c>
     </row>
     <row r="17">
@@ -627,7 +627,7 @@
         <v>492.09</v>
       </c>
       <c r="C17" t="n">
-        <v>500.8704712539911</v>
+        <v>506.2388964742422</v>
       </c>
     </row>
     <row r="18">
@@ -638,7 +638,7 @@
         <v>490.8700000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>502.2135603278875</v>
+        <v>507.218796685338</v>
       </c>
     </row>
     <row r="19">
@@ -649,7 +649,7 @@
         <v>487.76</v>
       </c>
       <c r="C19" t="n">
-        <v>502.6489747315645</v>
+        <v>507.5115768015384</v>
       </c>
     </row>
     <row r="20">
@@ -660,7 +660,7 @@
         <v>486.7699999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>501.2352962940931</v>
+        <v>506.037041068077</v>
       </c>
     </row>
     <row r="21">
@@ -671,7 +671,7 @@
         <v>485.87</v>
       </c>
       <c r="C21" t="n">
-        <v>499.772755652666</v>
+        <v>504.0883060917258</v>
       </c>
     </row>
     <row r="22">
@@ -682,7 +682,7 @@
         <v>485.01</v>
       </c>
       <c r="C22" t="n">
-        <v>499.8622354269027</v>
+        <v>503.8954177871346</v>
       </c>
     </row>
     <row r="23">
@@ -693,7 +693,7 @@
         <v>481.3</v>
       </c>
       <c r="C23" t="n">
-        <v>499.493192449212</v>
+        <v>503.5001428499817</v>
       </c>
     </row>
     <row r="24">
@@ -704,7 +704,7 @@
         <v>481.45</v>
       </c>
       <c r="C24" t="n">
-        <v>492.2538516074418</v>
+        <v>495.8431783765554</v>
       </c>
     </row>
     <row r="25">
@@ -715,7 +715,7 @@
         <v>478.18</v>
       </c>
       <c r="C25" t="n">
-        <v>488.113940551877</v>
+        <v>490.8223823979496</v>
       </c>
     </row>
     <row r="26">
@@ -726,7 +726,7 @@
         <v>478.32</v>
       </c>
       <c r="C26" t="n">
-        <v>483.5201815366744</v>
+        <v>485.3362161591648</v>
       </c>
     </row>
     <row r="27">
@@ -737,7 +737,7 @@
         <v>478.25</v>
       </c>
       <c r="C27" t="n">
-        <v>481.9757682830095</v>
+        <v>483.1474730968475</v>
       </c>
     </row>
     <row r="28">
@@ -748,7 +748,7 @@
         <v>476.94</v>
       </c>
       <c r="C28" t="n">
-        <v>480.3503589406609</v>
+        <v>481.1892929151654</v>
       </c>
     </row>
     <row r="29">
@@ -759,7 +759,7 @@
         <v>483.31</v>
       </c>
       <c r="C29" t="n">
-        <v>478.1099169254302</v>
+        <v>479.034686461091</v>
       </c>
     </row>
     <row r="30">
@@ -770,7 +770,7 @@
         <v>482.64</v>
       </c>
       <c r="C30" t="n">
-        <v>481.1887563765048</v>
+        <v>482.4758913740515</v>
       </c>
     </row>
     <row r="31">
@@ -781,7 +781,7 @@
         <v>485.65</v>
       </c>
       <c r="C31" t="n">
-        <v>484.178392291069</v>
+        <v>486.5984791368246</v>
       </c>
     </row>
     <row r="32">
@@ -792,7 +792,7 @@
         <v>487.41</v>
       </c>
       <c r="C32" t="n">
-        <v>483.7449009269475</v>
+        <v>487.9205741435289</v>
       </c>
     </row>
     <row r="33">
@@ -803,7 +803,7 @@
         <v>483.85</v>
       </c>
       <c r="C33" t="n">
-        <v>484.736434996128</v>
+        <v>490.7381777018308</v>
       </c>
     </row>
     <row r="34">
@@ -814,7 +814,7 @@
         <v>482.1100000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>487.8528321534395</v>
+        <v>495.074669085443</v>
       </c>
     </row>
     <row r="35">
@@ -825,7 +825,7 @@
         <v>480.49</v>
       </c>
       <c r="C35" t="n">
-        <v>488.8652434200048</v>
+        <v>496.3633233904838</v>
       </c>
     </row>
     <row r="36">
@@ -836,7 +836,7 @@
         <v>482.58</v>
       </c>
       <c r="C36" t="n">
-        <v>485.7932992875575</v>
+        <v>492.9187451899051</v>
       </c>
     </row>
     <row r="37">
@@ -847,7 +847,7 @@
         <v>488.16</v>
       </c>
       <c r="C37" t="n">
-        <v>489.3339975923299</v>
+        <v>496.0691780224442</v>
       </c>
     </row>
     <row r="38">
@@ -858,7 +858,7 @@
         <v>494.21</v>
       </c>
       <c r="C38" t="n">
-        <v>489.6846601366996</v>
+        <v>496.6386686563491</v>
       </c>
     </row>
     <row r="39">
@@ -869,7 +869,7 @@
         <v>499.55</v>
       </c>
       <c r="C39" t="n">
-        <v>494.6997666805982</v>
+        <v>499.988529190421</v>
       </c>
     </row>
     <row r="40">
@@ -880,7 +880,7 @@
         <v>496.75</v>
       </c>
       <c r="C40" t="n">
-        <v>498.1234039366245</v>
+        <v>501.7144943773746</v>
       </c>
     </row>
     <row r="41">
@@ -891,7 +891,7 @@
         <v>498.07</v>
       </c>
       <c r="C41" t="n">
-        <v>501.0283251777291</v>
+        <v>503.1038267090916</v>
       </c>
     </row>
     <row r="42">
@@ -902,7 +902,7 @@
         <v>496.48</v>
       </c>
       <c r="C42" t="n">
-        <v>504.2383297383785</v>
+        <v>505.5813338160514</v>
       </c>
     </row>
     <row r="43">
@@ -913,7 +913,7 @@
         <v>500.42</v>
       </c>
       <c r="C43" t="n">
-        <v>504.9240155220031</v>
+        <v>506.4800732582807</v>
       </c>
     </row>
     <row r="44">
@@ -924,7 +924,7 @@
         <v>500.78</v>
       </c>
       <c r="C44" t="n">
-        <v>506.2973951250314</v>
+        <v>508.6533470079302</v>
       </c>
     </row>
     <row r="45">
@@ -935,7 +935,7 @@
         <v>497.45</v>
       </c>
       <c r="C45" t="n">
-        <v>507.0204473733901</v>
+        <v>510.5056803300976</v>
       </c>
     </row>
     <row r="46">
@@ -946,7 +946,7 @@
         <v>491.11</v>
       </c>
       <c r="C46" t="n">
-        <v>506.88702455163</v>
+        <v>511.8969994485378</v>
       </c>
     </row>
     <row r="47">
@@ -957,7 +957,7 @@
         <v>492.37</v>
       </c>
       <c r="C47" t="n">
-        <v>502.847212485969</v>
+        <v>509.4142703860998</v>
       </c>
     </row>
     <row r="48">
@@ -968,7 +968,7 @@
         <v>489.65</v>
       </c>
       <c r="C48" t="n">
-        <v>502.1612345278263</v>
+        <v>510.0608260333537</v>
       </c>
     </row>
     <row r="49">
@@ -979,7 +979,7 @@
         <v>490.93</v>
       </c>
       <c r="C49" t="n">
-        <v>500.121367663145</v>
+        <v>508.9597690179943</v>
       </c>
     </row>
     <row r="50">
@@ -990,7 +990,7 @@
         <v>491.77</v>
       </c>
       <c r="C50" t="n">
-        <v>499.4430659264326</v>
+        <v>509.0754541903734</v>
       </c>
     </row>
     <row r="51">
@@ -1001,7 +1001,7 @@
         <v>490.34</v>
       </c>
       <c r="C51" t="n">
-        <v>498.8547061309218</v>
+        <v>509.189657241106</v>
       </c>
     </row>
     <row r="52">
@@ -1012,7 +1012,7 @@
         <v>489.44</v>
       </c>
       <c r="C52" t="n">
-        <v>497.1530764251947</v>
+        <v>507.6830141842365</v>
       </c>
     </row>
     <row r="53">
@@ -1023,7 +1023,7 @@
         <v>490.73</v>
       </c>
       <c r="C53" t="n">
-        <v>494.9208949804305</v>
+        <v>505.7416791915893</v>
       </c>
     </row>
     <row r="54">
@@ -1034,7 +1034,7 @@
         <v>490.59</v>
       </c>
       <c r="C54" t="n">
-        <v>493.4588536918163</v>
+        <v>505.1302588582038</v>
       </c>
     </row>
     <row r="55">
@@ -1045,7 +1045,7 @@
         <v>488.99</v>
       </c>
       <c r="C55" t="n">
-        <v>492.6665826439857</v>
+        <v>505.0403647273778</v>
       </c>
     </row>
     <row r="56">
@@ -1056,7 +1056,7 @@
         <v>489.97</v>
       </c>
       <c r="C56" t="n">
-        <v>488.6089904308319</v>
+        <v>501.809727333486</v>
       </c>
     </row>
     <row r="57">
@@ -1067,7 +1067,7 @@
         <v>489.0400000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>489.0149855166673</v>
+        <v>502.8120081126689</v>
       </c>
     </row>
     <row r="58">
@@ -1078,7 +1078,7 @@
         <v>488.99</v>
       </c>
       <c r="C58" t="n">
-        <v>487.7385122328996</v>
+        <v>502.1063004061579</v>
       </c>
     </row>
     <row r="59">
@@ -1089,7 +1089,7 @@
         <v>487.35</v>
       </c>
       <c r="C59" t="n">
-        <v>485.9911545589566</v>
+        <v>501.3248291909694</v>
       </c>
     </row>
     <row r="60">
@@ -1100,7 +1100,7 @@
         <v>487.3</v>
       </c>
       <c r="C60" t="n">
-        <v>484.5926851332187</v>
+        <v>500.8007424771785</v>
       </c>
     </row>
     <row r="61">
@@ -1111,7 +1111,7 @@
         <v>486.24</v>
       </c>
       <c r="C61" t="n">
-        <v>484.018365651369</v>
+        <v>500.5850008130073</v>
       </c>
     </row>
     <row r="62">
@@ -1122,7 +1122,7 @@
         <v>485.95</v>
       </c>
       <c r="C62" t="n">
-        <v>483.8961623311042</v>
+        <v>501.289672628045</v>
       </c>
     </row>
     <row r="63">
@@ -1133,7 +1133,7 @@
         <v>489.82</v>
       </c>
       <c r="C63" t="n">
-        <v>483.6406743079423</v>
+        <v>501.4026060476899</v>
       </c>
     </row>
     <row r="64">
@@ -1144,7 +1144,7 @@
         <v>491.81</v>
       </c>
       <c r="C64" t="n">
-        <v>485.416516341269</v>
+        <v>503.5995299965143</v>
       </c>
     </row>
     <row r="65">
@@ -1155,7 +1155,7 @@
         <v>491.79</v>
       </c>
       <c r="C65" t="n">
-        <v>489.4023983031511</v>
+        <v>508.3202999308705</v>
       </c>
     </row>
     <row r="66">
@@ -1166,7 +1166,7 @@
         <v>494.9599999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>490.7518089711666</v>
+        <v>510.2533106058835</v>
       </c>
     </row>
     <row r="67">
@@ -1177,7 +1177,7 @@
         <v>498.2200000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>491.5396814644336</v>
+        <v>511.7087221890687</v>
       </c>
     </row>
     <row r="68">
@@ -1188,7 +1188,7 @@
         <v>500.89</v>
       </c>
       <c r="C68" t="n">
-        <v>497.0136294960975</v>
+        <v>517.5023728907108</v>
       </c>
     </row>
     <row r="69">
@@ -1199,7 +1199,7 @@
         <v>497.07</v>
       </c>
       <c r="C69" t="n">
-        <v>498.7648598104715</v>
+        <v>518.8715770542622</v>
       </c>
     </row>
     <row r="70">
@@ -1210,7 +1210,7 @@
         <v>495.46</v>
       </c>
       <c r="C70" t="n">
-        <v>499.3639875650405</v>
+        <v>518.7798980027437</v>
       </c>
     </row>
     <row r="71">
@@ -1221,7 +1221,7 @@
         <v>499.01</v>
       </c>
       <c r="C71" t="n">
-        <v>497.0048376992344</v>
+        <v>515.7536499649286</v>
       </c>
     </row>
     <row r="72">
@@ -1232,7 +1232,7 @@
         <v>511.17</v>
       </c>
       <c r="C72" t="n">
-        <v>499.1397940889</v>
+        <v>517.5486745834351</v>
       </c>
     </row>
     <row r="73">
@@ -1243,7 +1243,7 @@
         <v>535.77</v>
       </c>
       <c r="C73" t="n">
-        <v>506.1645194664597</v>
+        <v>522.4831515848637</v>
       </c>
     </row>
     <row r="74">
@@ -1254,7 +1254,7 @@
         <v>522.22</v>
       </c>
       <c r="C74" t="n">
-        <v>519.4954918324947</v>
+        <v>533.8953820168972</v>
       </c>
     </row>
     <row r="75">
@@ -1265,7 +1265,7 @@
         <v>529.8</v>
       </c>
       <c r="C75" t="n">
-        <v>516.3517152667046</v>
+        <v>529.3649770617485</v>
       </c>
     </row>
     <row r="76">
@@ -1276,7 +1276,7 @@
         <v>541.37</v>
       </c>
       <c r="C76" t="n">
-        <v>518.2169467657804</v>
+        <v>530.9375346899033</v>
       </c>
     </row>
     <row r="77">
@@ -1287,7 +1287,7 @@
         <v>548.66</v>
       </c>
       <c r="C77" t="n">
-        <v>533.9069733768702</v>
+        <v>546.2288333922625</v>
       </c>
     </row>
     <row r="78">
@@ -1298,7 +1298,7 @@
         <v>549.77</v>
       </c>
       <c r="C78" t="n">
-        <v>536.3975433409214</v>
+        <v>548.513308763504</v>
       </c>
     </row>
     <row r="79">
@@ -1309,7 +1309,7 @@
         <v>545.21</v>
       </c>
       <c r="C79" t="n">
-        <v>539.8735913932323</v>
+        <v>551.3771927654743</v>
       </c>
     </row>
     <row r="80">
@@ -1320,7 +1320,7 @@
         <v>554.63</v>
       </c>
       <c r="C80" t="n">
-        <v>540.7038876265287</v>
+        <v>552.1741492301226</v>
       </c>
     </row>
     <row r="81">
@@ -1331,7 +1331,7 @@
         <v>551.41</v>
       </c>
       <c r="C81" t="n">
-        <v>543.0978168845177</v>
+        <v>555.0341021567583</v>
       </c>
     </row>
     <row r="82">
@@ -1342,7 +1342,7 @@
         <v>548.08</v>
       </c>
       <c r="C82" t="n">
-        <v>544.5854739099741</v>
+        <v>557.1649468541145</v>
       </c>
     </row>
     <row r="83">
@@ -1353,7 +1353,7 @@
         <v>547.84</v>
       </c>
       <c r="C83" t="n">
-        <v>545.7779284268618</v>
+        <v>559.2177756428719</v>
       </c>
     </row>
     <row r="84">
@@ -1364,7 +1364,7 @@
         <v>540.4299999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>546.8482114970684</v>
+        <v>560.6952437460423</v>
       </c>
     </row>
     <row r="85">
@@ -1375,7 +1375,7 @@
         <v>548.55</v>
       </c>
       <c r="C85" t="n">
-        <v>547.4918135255575</v>
+        <v>560.855610370636</v>
       </c>
     </row>
     <row r="86">
@@ -1386,7 +1386,7 @@
         <v>545.1799999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>548.1081848889589</v>
+        <v>561.3638771623373</v>
       </c>
     </row>
     <row r="87">
@@ -1397,7 +1397,7 @@
         <v>536.48</v>
       </c>
       <c r="C87" t="n">
-        <v>547.9374062269926</v>
+        <v>560.9479587674141</v>
       </c>
     </row>
     <row r="88">
@@ -1408,7 +1408,7 @@
         <v>524.4</v>
       </c>
       <c r="C88" t="n">
-        <v>546.4285426437855</v>
+        <v>559.0546572655439</v>
       </c>
     </row>
     <row r="89">
@@ -1419,7 +1419,7 @@
         <v>527.97</v>
       </c>
       <c r="C89" t="n">
-        <v>531.9391514360905</v>
+        <v>542.6045094281435</v>
       </c>
     </row>
     <row r="90">
@@ -1430,7 +1430,7 @@
         <v>527.73</v>
       </c>
       <c r="C90" t="n">
-        <v>528.9088023304939</v>
+        <v>537.7394318431616</v>
       </c>
     </row>
     <row r="91">
@@ -1441,7 +1441,7 @@
         <v>525.9299999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>524.0357138514519</v>
+        <v>531.7278933227062</v>
       </c>
     </row>
     <row r="92">
@@ -1452,7 +1452,7 @@
         <v>527.36</v>
       </c>
       <c r="C92" t="n">
-        <v>521.1923564374447</v>
+        <v>528.5443597733974</v>
       </c>
     </row>
     <row r="93">
@@ -1463,7 +1463,7 @@
         <v>526.3</v>
       </c>
       <c r="C93" t="n">
-        <v>519.4056083261967</v>
+        <v>526.7611602544785</v>
       </c>
     </row>
     <row r="94">
@@ -1474,7 +1474,7 @@
         <v>524.86</v>
       </c>
       <c r="C94" t="n">
-        <v>517.3860555589199</v>
+        <v>524.5845450907946</v>
       </c>
     </row>
     <row r="95">
@@ -1485,7 +1485,7 @@
         <v>523.63</v>
       </c>
       <c r="C95" t="n">
-        <v>516.8728377372026</v>
+        <v>524.1454333513975</v>
       </c>
     </row>
     <row r="96">
@@ -1496,7 +1496,7 @@
         <v>523.8200000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>512.8517832756042</v>
+        <v>520.2648138999939</v>
       </c>
     </row>
     <row r="97">
@@ -1507,7 +1507,7 @@
         <v>521.21</v>
       </c>
       <c r="C97" t="n">
-        <v>511.7993812859058</v>
+        <v>519.2705705761909</v>
       </c>
     </row>
     <row r="98">
@@ -1518,7 +1518,7 @@
         <v>518.95</v>
       </c>
       <c r="C98" t="n">
-        <v>511.3996015489101</v>
+        <v>518.4828786998987</v>
       </c>
     </row>
     <row r="99">
@@ -1529,7 +1529,7 @@
         <v>518.8099999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>509.8443087786436</v>
+        <v>516.1049287319183</v>
       </c>
     </row>
     <row r="100">
@@ -1540,7 +1540,7 @@
         <v>518.8099999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>508.7183531820774</v>
+        <v>514.7492495924234</v>
       </c>
     </row>
     <row r="101">
@@ -1551,7 +1551,7 @@
         <v>518.14</v>
       </c>
       <c r="C101" t="n">
-        <v>507.2977900505065</v>
+        <v>513.180973649025</v>
       </c>
     </row>
     <row r="102">
@@ -1562,7 +1562,7 @@
         <v>513.5599999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>506.6314143463969</v>
+        <v>512.2400017082691</v>
       </c>
     </row>
     <row r="103">
@@ -1573,7 +1573,7 @@
         <v>522.58</v>
       </c>
       <c r="C103" t="n">
-        <v>506.2600074112415</v>
+        <v>510.8192526474595</v>
       </c>
     </row>
     <row r="104">
@@ -1584,7 +1584,7 @@
         <v>529.35</v>
       </c>
       <c r="C104" t="n">
-        <v>508.1457495614886</v>
+        <v>512.1790594160557</v>
       </c>
     </row>
     <row r="105">
@@ -1595,7 +1595,7 @@
         <v>533.87</v>
       </c>
       <c r="C105" t="n">
-        <v>511.7036542892455</v>
+        <v>516.560933470726</v>
       </c>
     </row>
     <row r="106">
@@ -1606,7 +1606,7 @@
         <v>528.86</v>
       </c>
       <c r="C106" t="n">
-        <v>520.6543728411198</v>
+        <v>526.610642567277</v>
       </c>
     </row>
     <row r="107">
@@ -1617,7 +1617,7 @@
         <v>520.84</v>
       </c>
       <c r="C107" t="n">
-        <v>520.7965502738953</v>
+        <v>527.3713800162077</v>
       </c>
     </row>
     <row r="108">
@@ -1628,7 +1628,7 @@
         <v>527.66</v>
       </c>
       <c r="C108" t="n">
-        <v>520.1644546091557</v>
+        <v>526.5016774088144</v>
       </c>
     </row>
     <row r="109">
@@ -1639,7 +1639,7 @@
         <v>523.75</v>
       </c>
       <c r="C109" t="n">
-        <v>521.3319839835167</v>
+        <v>528.0105834901333</v>
       </c>
     </row>
     <row r="110">
@@ -1650,7 +1650,7 @@
         <v>519.88</v>
       </c>
       <c r="C110" t="n">
-        <v>521.236171990633</v>
+        <v>528.0575332790613</v>
       </c>
     </row>
     <row r="111">
@@ -1661,7 +1661,7 @@
         <v>517.58</v>
       </c>
       <c r="C111" t="n">
-        <v>519.9570531994104</v>
+        <v>526.4898629337549</v>
       </c>
     </row>
     <row r="112">
@@ -1672,7 +1672,7 @@
         <v>514.87</v>
       </c>
       <c r="C112" t="n">
-        <v>519.2907253056765</v>
+        <v>525.124770462513</v>
       </c>
     </row>
     <row r="113">
@@ -1683,7 +1683,7 @@
         <v>513.15</v>
       </c>
       <c r="C113" t="n">
-        <v>517.6560141891241</v>
+        <v>522.7027180790901</v>
       </c>
     </row>
     <row r="114">
@@ -1694,7 +1694,7 @@
         <v>483</v>
       </c>
       <c r="C114" t="n">
-        <v>516.4402069598436</v>
+        <v>520.528769671917</v>
       </c>
     </row>
     <row r="115">
@@ -1705,7 +1705,7 @@
         <v>510.18</v>
       </c>
       <c r="C115" t="n">
-        <v>505.0440833121538</v>
+        <v>509.3729090988635</v>
       </c>
     </row>
     <row r="116">
@@ -1716,7 +1716,7 @@
         <v>523.5</v>
       </c>
       <c r="C116" t="n">
-        <v>514.0118542313576</v>
+        <v>518.9749537110329</v>
       </c>
     </row>
     <row r="117">
@@ -1727,7 +1727,7 @@
         <v>522</v>
       </c>
       <c r="C117" t="n">
-        <v>515.9591283351183</v>
+        <v>522.6475767791271</v>
       </c>
     </row>
     <row r="118">
@@ -1738,7 +1738,7 @@
         <v>521.6</v>
       </c>
       <c r="C118" t="n">
-        <v>516.9004508852959</v>
+        <v>525.4320530593395</v>
       </c>
     </row>
     <row r="119">
@@ -1749,7 +1749,7 @@
         <v>527</v>
       </c>
       <c r="C119" t="n">
-        <v>515.9788155853748</v>
+        <v>526.4327985942364</v>
       </c>
     </row>
     <row r="120">
@@ -1760,7 +1760,7 @@
         <v>521</v>
       </c>
       <c r="C120" t="n">
-        <v>519.2760528326035</v>
+        <v>531.7440426051617</v>
       </c>
     </row>
     <row r="121">
@@ -1771,7 +1771,7 @@
         <v>514</v>
       </c>
       <c r="C121" t="n">
-        <v>520.0556913167238</v>
+        <v>533.7092721611261</v>
       </c>
     </row>
     <row r="122">
@@ -1782,7 +1782,7 @@
         <v>519.9</v>
       </c>
       <c r="C122" t="n">
-        <v>520.2806656956673</v>
+        <v>533.8926515132189</v>
       </c>
     </row>
     <row r="123">
@@ -1793,7 +1793,7 @@
         <v>510.4999999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>523.9267061948776</v>
+        <v>537.4989456534386</v>
       </c>
     </row>
     <row r="124">
@@ -1804,7 +1804,7 @@
         <v>509.9999999999999</v>
       </c>
       <c r="C124" t="n">
-        <v>518.1937215477228</v>
+        <v>530.8995945006609</v>
       </c>
     </row>
     <row r="125">
@@ -1815,7 +1815,7 @@
         <v>509.9999999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>516.2982951402664</v>
+        <v>527.937720477581</v>
       </c>
     </row>
     <row r="126">
@@ -1826,7 +1826,7 @@
         <v>508.7</v>
       </c>
       <c r="C126" t="n">
-        <v>515.9959423243999</v>
+        <v>526.7234325557947</v>
       </c>
     </row>
     <row r="127">
@@ -1837,7 +1837,7 @@
         <v>509</v>
       </c>
       <c r="C127" t="n">
-        <v>515.0714490264654</v>
+        <v>524.891073346138</v>
       </c>
     </row>
     <row r="128">
@@ -1848,7 +1848,7 @@
         <v>507.9</v>
       </c>
       <c r="C128" t="n">
-        <v>514.2037332057953</v>
+        <v>523.2482238411903</v>
       </c>
     </row>
     <row r="129">
@@ -1859,7 +1859,7 @@
         <v>505.3</v>
       </c>
       <c r="C129" t="n">
-        <v>514.3490023761988</v>
+        <v>521.7756217718124</v>
       </c>
     </row>
     <row r="130">
@@ -1870,7 +1870,7 @@
         <v>509</v>
       </c>
       <c r="C130" t="n">
-        <v>510.3442671895027</v>
+        <v>515.1230098605156</v>
       </c>
     </row>
     <row r="131">
@@ -1881,7 +1881,7 @@
         <v>507</v>
       </c>
       <c r="C131" t="n">
-        <v>510.6641186028718</v>
+        <v>513.7654395550489</v>
       </c>
     </row>
     <row r="132">
@@ -1892,7 +1892,7 @@
         <v>506.0000000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>510.6074792444705</v>
+        <v>512.3426240235567</v>
       </c>
     </row>
     <row r="133">
@@ -1903,7 +1903,7 @@
         <v>511.1000000000001</v>
       </c>
       <c r="C133" t="n">
-        <v>506.7571290731429</v>
+        <v>507.5045858621597</v>
       </c>
     </row>
     <row r="134">
@@ -1914,7 +1914,7 @@
         <v>513.1</v>
       </c>
       <c r="C134" t="n">
-        <v>507.9449087977409</v>
+        <v>508.5989388003945</v>
       </c>
     </row>
     <row r="135">
@@ -1925,7 +1925,7 @@
         <v>511.1000000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>510.4792199432849</v>
+        <v>511.2654881328344</v>
       </c>
     </row>
     <row r="136">
@@ -1936,7 +1936,7 @@
         <v>513.1</v>
       </c>
       <c r="C136" t="n">
-        <v>508.0862256437539</v>
+        <v>508.7041163146495</v>
       </c>
     </row>
     <row r="137">
@@ -1947,7 +1947,7 @@
         <v>507.3</v>
       </c>
       <c r="C137" t="n">
-        <v>509.4796856045722</v>
+        <v>510.9804107993841</v>
       </c>
     </row>
     <row r="138">
@@ -1958,7 +1958,7 @@
         <v>508.5</v>
       </c>
       <c r="C138" t="n">
-        <v>507.1710234954953</v>
+        <v>508.9020725190639</v>
       </c>
     </row>
     <row r="139">
@@ -1969,7 +1969,7 @@
         <v>509</v>
       </c>
       <c r="C139" t="n">
-        <v>507.8873716667294</v>
+        <v>509.9850200265645</v>
       </c>
     </row>
     <row r="140">
@@ -1980,7 +1980,7 @@
         <v>507.9</v>
       </c>
       <c r="C140" t="n">
-        <v>508.3728754073381</v>
+        <v>510.9225708693265</v>
       </c>
     </row>
     <row r="141">
@@ -1991,7 +1991,7 @@
         <v>504</v>
       </c>
       <c r="C141" t="n">
-        <v>509.5365055799484</v>
+        <v>512.4903580844402</v>
       </c>
     </row>
     <row r="142">
@@ -2002,7 +2002,7 @@
         <v>503</v>
       </c>
       <c r="C142" t="n">
-        <v>506.8891175836324</v>
+        <v>509.3940572217106</v>
       </c>
     </row>
     <row r="143">
@@ -2013,7 +2013,7 @@
         <v>503.5</v>
       </c>
       <c r="C143" t="n">
-        <v>505.321447238326</v>
+        <v>507.2036726698279</v>
       </c>
     </row>
     <row r="144">
@@ -2024,7 +2024,7 @@
         <v>508</v>
       </c>
       <c r="C144" t="n">
-        <v>504.6817497238516</v>
+        <v>506.1620705127715</v>
       </c>
     </row>
     <row r="145">
@@ -2035,7 +2035,7 @@
         <v>507.1000000000001</v>
       </c>
       <c r="C145" t="n">
-        <v>506.6038171350955</v>
+        <v>508.959211230278</v>
       </c>
     </row>
     <row r="146">
@@ -2046,7 +2046,7 @@
         <v>507</v>
       </c>
       <c r="C146" t="n">
-        <v>506.7580321580171</v>
+        <v>510.0719180405139</v>
       </c>
     </row>
     <row r="147">
@@ -2057,7 +2057,7 @@
         <v>506.0000000000001</v>
       </c>
       <c r="C147" t="n">
-        <v>507.4646482616662</v>
+        <v>511.6649385094642</v>
       </c>
     </row>
     <row r="148">
@@ -2068,7 +2068,7 @@
         <v>509.5000000000001</v>
       </c>
       <c r="C148" t="n">
-        <v>504.9528770521283</v>
+        <v>510.133837789297</v>
       </c>
     </row>
     <row r="149">
@@ -2079,7 +2079,7 @@
         <v>513</v>
       </c>
       <c r="C149" t="n">
-        <v>506.8295033574104</v>
+        <v>513.400763258338</v>
       </c>
     </row>
     <row r="150">
@@ -2090,7 +2090,7 @@
         <v>510.4999999999999</v>
       </c>
       <c r="C150" t="n">
-        <v>508.81309209764</v>
+        <v>517.612326130271</v>
       </c>
     </row>
     <row r="151">
@@ -2101,7 +2101,7 @@
         <v>511</v>
       </c>
       <c r="C151" t="n">
-        <v>507.0677158981561</v>
+        <v>517.5396543592215</v>
       </c>
     </row>
     <row r="152">
@@ -2112,7 +2112,7 @@
         <v>514.9</v>
       </c>
       <c r="C152" t="n">
-        <v>507.8652673363685</v>
+        <v>519.140196993947</v>
       </c>
     </row>
     <row r="153">
@@ -2123,7 +2123,7 @@
         <v>513.2</v>
       </c>
       <c r="C153" t="n">
-        <v>510.2069345414638</v>
+        <v>522.640033364296</v>
       </c>
     </row>
     <row r="154">
@@ -2134,7 +2134,7 @@
         <v>512</v>
       </c>
       <c r="C154" t="n">
-        <v>511.1871003657579</v>
+        <v>523.8877991735935</v>
       </c>
     </row>
     <row r="155">
@@ -2145,7 +2145,7 @@
         <v>512.5</v>
       </c>
       <c r="C155" t="n">
-        <v>510.5360239818692</v>
+        <v>523.200710952282</v>
       </c>
     </row>
     <row r="156">
@@ -2156,7 +2156,7 @@
         <v>510.2</v>
       </c>
       <c r="C156" t="n">
-        <v>511.4653567522764</v>
+        <v>523.5405364781618</v>
       </c>
     </row>
     <row r="157">
@@ -2167,7 +2167,7 @@
         <v>503</v>
       </c>
       <c r="C157" t="n">
-        <v>510.834621027112</v>
+        <v>522.0470359623432</v>
       </c>
     </row>
     <row r="158">
@@ -2178,7 +2178,7 @@
         <v>495</v>
       </c>
       <c r="C158" t="n">
-        <v>507.0880724936723</v>
+        <v>515.9082687199116</v>
       </c>
     </row>
     <row r="159">
@@ -2189,7 +2189,7 @@
         <v>496</v>
       </c>
       <c r="C159" t="n">
-        <v>500.1127564832568</v>
+        <v>507.0269070863723</v>
       </c>
     </row>
     <row r="160">
@@ -2200,7 +2200,7 @@
         <v>494.7</v>
       </c>
       <c r="C160" t="n">
-        <v>500.0530678853392</v>
+        <v>506.1505163386464</v>
       </c>
     </row>
     <row r="161">
@@ -2211,7 +2211,7 @@
         <v>495</v>
       </c>
       <c r="C161" t="n">
-        <v>495.7872827351093</v>
+        <v>501.7139950245618</v>
       </c>
     </row>
     <row r="162">
@@ -2222,7 +2222,7 @@
         <v>492</v>
       </c>
       <c r="C162" t="n">
-        <v>493.8399661332368</v>
+        <v>499.7927988246083</v>
       </c>
     </row>
     <row r="163">
@@ -2233,7 +2233,7 @@
         <v>493.9999999999999</v>
       </c>
       <c r="C163" t="n">
-        <v>492.2847477346658</v>
+        <v>498.2043522149324</v>
       </c>
     </row>
     <row r="164">
@@ -2244,7 +2244,7 @@
         <v>499</v>
       </c>
       <c r="C164" t="n">
-        <v>491.3358817696571</v>
+        <v>497.9619323611259</v>
       </c>
     </row>
     <row r="165">
@@ -2255,7 +2255,7 @@
         <v>499.9</v>
       </c>
       <c r="C165" t="n">
-        <v>493.208529189229</v>
+        <v>500.7394920736551</v>
       </c>
     </row>
     <row r="166">
@@ -2266,7 +2266,7 @@
         <v>499</v>
       </c>
       <c r="C166" t="n">
-        <v>492.8851344957947</v>
+        <v>501.2165599390864</v>
       </c>
     </row>
     <row r="167">
@@ -2277,7 +2277,7 @@
         <v>497</v>
       </c>
       <c r="C167" t="n">
-        <v>492.9365625232458</v>
+        <v>502.1424025520682</v>
       </c>
     </row>
     <row r="168">
@@ -2288,7 +2288,7 @@
         <v>497.1</v>
       </c>
       <c r="C168" t="n">
-        <v>492.6737701371312</v>
+        <v>502.5642228722572</v>
       </c>
     </row>
     <row r="169">
@@ -2299,7 +2299,7 @@
         <v>497.2</v>
       </c>
       <c r="C169" t="n">
-        <v>492.5874670967459</v>
+        <v>502.8916495740413</v>
       </c>
     </row>
     <row r="170">
@@ -2310,7 +2310,7 @@
         <v>498.6000000000001</v>
       </c>
       <c r="C170" t="n">
-        <v>492.7768014967441</v>
+        <v>503.4126233011484</v>
       </c>
     </row>
   </sheetData>

--- a/CATI/saved_states/NABIL_backtest_results.xlsx
+++ b/CATI/saved_states/NABIL_backtest_results.xlsx
@@ -808,7 +808,7 @@
         <v>768</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -819,7 +819,7 @@
         <v>763.2</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -830,7 +830,7 @@
         <v>760</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -841,7 +841,7 @@
         <v>759</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -852,7 +852,7 @@
         <v>755</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -863,7 +863,7 @@
         <v>770</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -874,7 +874,7 @@
         <v>799</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -885,7 +885,7 @@
         <v>781</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -896,7 +896,7 @@
         <v>772</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -907,7 +907,7 @@
         <v>764</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -918,7 +918,7 @@
         <v>749.5</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1314,7 +1314,7 @@
         <v>881</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1325,7 +1325,7 @@
         <v>846</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1336,7 +1336,7 @@
         <v>815</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1347,7 +1347,7 @@
         <v>807.1</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -1358,7 +1358,7 @@
         <v>808</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -1369,7 +1369,7 @@
         <v>804</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -1380,7 +1380,7 @@
         <v>794</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -1391,7 +1391,7 @@
         <v>797</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -1402,7 +1402,7 @@
         <v>800</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -1413,7 +1413,7 @@
         <v>807</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -1424,7 +1424,7 @@
         <v>810</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -1435,7 +1435,7 @@
         <v>838</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -1446,7 +1446,7 @@
         <v>842</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -1457,7 +1457,7 @@
         <v>834.9</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3140,7 +3140,7 @@
         <v>569.2</v>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -3184,7 +3184,7 @@
         <v>515</v>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -3360,7 +3360,7 @@
         <v>513</v>
       </c>
       <c r="C265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -3393,7 +3393,7 @@
         <v>520</v>
       </c>
       <c r="C268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -3404,7 +3404,7 @@
         <v>523</v>
       </c>
       <c r="C269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -3492,7 +3492,7 @@
         <v>490</v>
       </c>
       <c r="C277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -3525,7 +3525,7 @@
         <v>492</v>
       </c>
       <c r="C280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -3547,7 +3547,7 @@
         <v>494.5</v>
       </c>
       <c r="C282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -3734,7 +3734,7 @@
         <v>475.1</v>
       </c>
       <c r="C299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -3789,7 +3789,7 @@
         <v>457.7</v>
       </c>
       <c r="C304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -3800,7 +3800,7 @@
         <v>449</v>
       </c>
       <c r="C305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -4009,7 +4009,7 @@
         <v>442.5</v>
       </c>
       <c r="C324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -4031,7 +4031,7 @@
         <v>439</v>
       </c>
       <c r="C326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -4350,7 +4350,7 @@
         <v>437</v>
       </c>
       <c r="C355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
@@ -4383,7 +4383,7 @@
         <v>514</v>
       </c>
       <c r="C358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
@@ -4460,7 +4460,7 @@
         <v>483</v>
       </c>
       <c r="C365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
@@ -4482,7 +4482,7 @@
         <v>477</v>
       </c>
       <c r="C367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -4614,7 +4614,7 @@
         <v>458.2</v>
       </c>
       <c r="C379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
@@ -4702,7 +4702,7 @@
         <v>487</v>
       </c>
       <c r="C387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
@@ -4713,7 +4713,7 @@
         <v>490</v>
       </c>
       <c r="C388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
@@ -4746,7 +4746,7 @@
         <v>507</v>
       </c>
       <c r="C391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
@@ -4823,7 +4823,7 @@
         <v>579</v>
       </c>
       <c r="C398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
@@ -4834,7 +4834,7 @@
         <v>575.9</v>
       </c>
       <c r="C399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
@@ -4845,7 +4845,7 @@
         <v>633.4</v>
       </c>
       <c r="C400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
@@ -4900,7 +4900,7 @@
         <v>660</v>
       </c>
       <c r="C405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
@@ -4911,7 +4911,7 @@
         <v>625</v>
       </c>
       <c r="C406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
@@ -4922,7 +4922,7 @@
         <v>639.1</v>
       </c>
       <c r="C407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
@@ -4955,7 +4955,7 @@
         <v>645</v>
       </c>
       <c r="C410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
@@ -5087,7 +5087,7 @@
         <v>595</v>
       </c>
       <c r="C422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
@@ -5120,7 +5120,7 @@
         <v>571</v>
       </c>
       <c r="C425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
@@ -5131,7 +5131,7 @@
         <v>562</v>
       </c>
       <c r="C426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427">
@@ -5142,7 +5142,7 @@
         <v>568</v>
       </c>
       <c r="C427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428">
@@ -5186,7 +5186,7 @@
         <v>550</v>
       </c>
       <c r="C431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
@@ -5252,7 +5252,7 @@
         <v>593</v>
       </c>
       <c r="C437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
@@ -5307,7 +5307,7 @@
         <v>585.5</v>
       </c>
       <c r="C442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
@@ -5384,7 +5384,7 @@
         <v>576</v>
       </c>
       <c r="C449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450">
@@ -5395,7 +5395,7 @@
         <v>567</v>
       </c>
       <c r="C450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451">
@@ -5406,7 +5406,7 @@
         <v>564.6</v>
       </c>
       <c r="C451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
@@ -5417,7 +5417,7 @@
         <v>570</v>
       </c>
       <c r="C452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
@@ -5714,7 +5714,7 @@
         <v>508</v>
       </c>
       <c r="C479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480">
@@ -5846,7 +5846,7 @@
         <v>499</v>
       </c>
       <c r="C491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492">
@@ -5978,7 +5978,7 @@
         <v>478.32</v>
       </c>
       <c r="C503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504">
@@ -6000,7 +6000,7 @@
         <v>476.94</v>
       </c>
       <c r="C505" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506">
@@ -6132,7 +6132,7 @@
         <v>496.75</v>
       </c>
       <c r="C517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518">
@@ -6198,7 +6198,7 @@
         <v>491.11</v>
       </c>
       <c r="C523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
@@ -6341,7 +6341,7 @@
         <v>487.35</v>
       </c>
       <c r="C536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537">
@@ -6407,7 +6407,7 @@
         <v>491.79</v>
       </c>
       <c r="C542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543">
@@ -6572,7 +6572,7 @@
         <v>551.41</v>
       </c>
       <c r="C557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558">
@@ -6616,7 +6616,7 @@
         <v>548.55</v>
       </c>
       <c r="C561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562">
@@ -6682,7 +6682,7 @@
         <v>525.9299999999999</v>
       </c>
       <c r="C567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568">
@@ -6715,7 +6715,7 @@
         <v>523.63</v>
       </c>
       <c r="C570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571">
@@ -6726,7 +6726,7 @@
         <v>523.8200000000001</v>
       </c>
       <c r="C571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572">
@@ -6759,7 +6759,7 @@
         <v>518.8099999999999</v>
       </c>
       <c r="C574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575">
@@ -6880,7 +6880,7 @@
         <v>523.5</v>
       </c>
       <c r="C585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586">
@@ -6965,7 +6965,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.608843537414966</v>
+        <v>0.6717687074829932</v>
       </c>
     </row>
     <row r="3">
@@ -6975,7 +6975,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7098757314747847</v>
+        <v>0.7874449339207048</v>
       </c>
     </row>
   </sheetData>
@@ -7016,10 +7016,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -7029,10 +7029,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="C3" t="n">
-        <v>238</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -7204,7 +7204,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1277</v>
+        <v>0.3435</v>
       </c>
     </row>
     <row r="3">
@@ -7214,7 +7214,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-18.43</v>
+        <v>-20.51</v>
       </c>
     </row>
     <row r="4">
@@ -7224,7 +7224,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.69</v>
+        <v>44.22</v>
       </c>
     </row>
   </sheetData>
@@ -7527,7 +7527,7 @@
         <v>44812</v>
       </c>
       <c r="B35" t="n">
-        <v>1.033714344325864</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="36">
@@ -7535,7 +7535,7 @@
         <v>44815</v>
       </c>
       <c r="B36" t="n">
-        <v>1.032354193872803</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="37">
@@ -7543,7 +7543,7 @@
         <v>44816</v>
       </c>
       <c r="B37" t="n">
-        <v>1.026913592060562</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="38">
@@ -7551,7 +7551,7 @@
         <v>44817</v>
       </c>
       <c r="B38" t="n">
-        <v>1.047315848856467</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="39">
@@ -7559,7 +7559,7 @@
         <v>44818</v>
       </c>
       <c r="B39" t="n">
-        <v>1.086760211995217</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="40">
@@ -7567,7 +7567,7 @@
         <v>44819</v>
       </c>
       <c r="B40" t="n">
-        <v>1.062277503840131</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="41">
@@ -7575,7 +7575,7 @@
         <v>44820</v>
       </c>
       <c r="B41" t="n">
-        <v>1.050036149762588</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="42">
@@ -7583,7 +7583,7 @@
         <v>44822</v>
       </c>
       <c r="B42" t="n">
-        <v>1.039154946138105</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="43">
@@ -7591,7 +7591,7 @@
         <v>44824</v>
       </c>
       <c r="B43" t="n">
-        <v>1.01943276456873</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="44">
@@ -7599,7 +7599,7 @@
         <v>44825</v>
       </c>
       <c r="B44" t="n">
-        <v>1.036570660277291</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="45">
@@ -7607,7 +7607,7 @@
         <v>44826</v>
       </c>
       <c r="B45" t="n">
-        <v>1.032354193872804</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="46">
@@ -7615,7 +7615,7 @@
         <v>44829</v>
       </c>
       <c r="B46" t="n">
-        <v>1.032354193872804</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="47">
@@ -7623,7 +7623,7 @@
         <v>44831</v>
       </c>
       <c r="B47" t="n">
-        <v>1.032354193872804</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="48">
@@ -7631,7 +7631,7 @@
         <v>44832</v>
       </c>
       <c r="B48" t="n">
-        <v>1.032354193872804</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="49">
@@ -7639,7 +7639,7 @@
         <v>44833</v>
       </c>
       <c r="B49" t="n">
-        <v>1.032354193872804</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="50">
@@ -7647,7 +7647,7 @@
         <v>44851</v>
       </c>
       <c r="B50" t="n">
-        <v>1.032354193872804</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="51">
@@ -7655,7 +7655,7 @@
         <v>44853</v>
       </c>
       <c r="B51" t="n">
-        <v>1.032354193872804</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="52">
@@ -7663,7 +7663,7 @@
         <v>44854</v>
       </c>
       <c r="B52" t="n">
-        <v>1.032354193872804</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="53">
@@ -7671,7 +7671,7 @@
         <v>44857</v>
       </c>
       <c r="B53" t="n">
-        <v>1.032354193872804</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="54">
@@ -7679,7 +7679,7 @@
         <v>44865</v>
       </c>
       <c r="B54" t="n">
-        <v>1.032354193872804</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="55">
@@ -7687,7 +7687,7 @@
         <v>44866</v>
       </c>
       <c r="B55" t="n">
-        <v>1.032354193872804</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="56">
@@ -7695,7 +7695,7 @@
         <v>44867</v>
       </c>
       <c r="B56" t="n">
-        <v>1.032354193872804</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="57">
@@ -7703,7 +7703,7 @@
         <v>44868</v>
       </c>
       <c r="B57" t="n">
-        <v>1.032354193872804</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="58">
@@ -7711,7 +7711,7 @@
         <v>44871</v>
       </c>
       <c r="B58" t="n">
-        <v>1.032354193872804</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="59">
@@ -7719,7 +7719,7 @@
         <v>44872</v>
       </c>
       <c r="B59" t="n">
-        <v>1.032354193872804</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="60">
@@ -7727,7 +7727,7 @@
         <v>44873</v>
       </c>
       <c r="B60" t="n">
-        <v>1.032354193872804</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="61">
@@ -7735,7 +7735,7 @@
         <v>44874</v>
       </c>
       <c r="B61" t="n">
-        <v>1.032354193872804</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="62">
@@ -7743,7 +7743,7 @@
         <v>44875</v>
       </c>
       <c r="B62" t="n">
-        <v>1.032354193872804</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="63">
@@ -7751,7 +7751,7 @@
         <v>44878</v>
       </c>
       <c r="B63" t="n">
-        <v>1.032354193872804</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="64">
@@ -7759,7 +7759,7 @@
         <v>44879</v>
       </c>
       <c r="B64" t="n">
-        <v>1.032354193872804</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="65">
@@ -7767,7 +7767,7 @@
         <v>44880</v>
       </c>
       <c r="B65" t="n">
-        <v>1.032354193872804</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="66">
@@ -7775,7 +7775,7 @@
         <v>44881</v>
       </c>
       <c r="B66" t="n">
-        <v>1.032354193872804</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="67">
@@ -7783,7 +7783,7 @@
         <v>44882</v>
       </c>
       <c r="B67" t="n">
-        <v>1.032354193872804</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="68">
@@ -7791,7 +7791,7 @@
         <v>44887</v>
       </c>
       <c r="B68" t="n">
-        <v>1.032354193872804</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="69">
@@ -7799,7 +7799,7 @@
         <v>44888</v>
       </c>
       <c r="B69" t="n">
-        <v>1.032354193872804</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="70">
@@ -7807,7 +7807,7 @@
         <v>44889</v>
       </c>
       <c r="B70" t="n">
-        <v>1.032354193872804</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="71">
@@ -7815,7 +7815,7 @@
         <v>44892</v>
       </c>
       <c r="B71" t="n">
-        <v>1.032354193872804</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="72">
@@ -7823,7 +7823,7 @@
         <v>44893</v>
       </c>
       <c r="B72" t="n">
-        <v>1.032354193872804</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="73">
@@ -7831,7 +7831,7 @@
         <v>44894</v>
       </c>
       <c r="B73" t="n">
-        <v>1.032354193872804</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="74">
@@ -7839,7 +7839,7 @@
         <v>44895</v>
       </c>
       <c r="B74" t="n">
-        <v>1.032354193872804</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="75">
@@ -7847,7 +7847,7 @@
         <v>44896</v>
       </c>
       <c r="B75" t="n">
-        <v>1.032354193872804</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="76">
@@ -7855,7 +7855,7 @@
         <v>44899</v>
       </c>
       <c r="B76" t="n">
-        <v>1.032354193872804</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="77">
@@ -7863,7 +7863,7 @@
         <v>44900</v>
       </c>
       <c r="B77" t="n">
-        <v>1.032354193872804</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="78">
@@ -7871,7 +7871,7 @@
         <v>44901</v>
       </c>
       <c r="B78" t="n">
-        <v>1.032354193872804</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="79">
@@ -7879,7 +7879,7 @@
         <v>44902</v>
       </c>
       <c r="B79" t="n">
-        <v>1.032354193872804</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="80">
@@ -7887,7 +7887,7 @@
         <v>44906</v>
       </c>
       <c r="B80" t="n">
-        <v>1.032354193872804</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="81">
@@ -7895,7 +7895,7 @@
         <v>44907</v>
       </c>
       <c r="B81" t="n">
-        <v>0.9945256123006323</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="82">
@@ -7903,7 +7903,7 @@
         <v>44908</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9848854253838532</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="83">
@@ -7911,7 +7911,7 @@
         <v>44909</v>
       </c>
       <c r="B83" t="n">
-        <v>0.985983674526271</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="84">
@@ -7919,7 +7919,7 @@
         <v>44910</v>
       </c>
       <c r="B84" t="n">
-        <v>0.981102567226636</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="85">
@@ -7927,7 +7927,7 @@
         <v>44913</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9688997989775485</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="86">
@@ -7935,7 +7935,7 @@
         <v>44914</v>
       </c>
       <c r="B86" t="n">
-        <v>0.9725606294522747</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="87">
@@ -7943,7 +7943,7 @@
         <v>44915</v>
       </c>
       <c r="B87" t="n">
-        <v>0.976221459927001</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="88">
@@ -7951,7 +7951,7 @@
         <v>44916</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9847633977013623</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="89">
@@ -7959,7 +7959,7 @@
         <v>44917</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9884242281760885</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="90">
@@ -7967,7 +7967,7 @@
         <v>44921</v>
       </c>
       <c r="B90" t="n">
-        <v>1.022591979273534</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="91">
@@ -7975,7 +7975,7 @@
         <v>44922</v>
       </c>
       <c r="B91" t="n">
-        <v>1.027473086573169</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="92">
@@ -7983,7 +7983,7 @@
         <v>44923</v>
       </c>
       <c r="B92" t="n">
-        <v>1.018809121116317</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="93">
@@ -7991,7 +7991,7 @@
         <v>44924</v>
       </c>
       <c r="B93" t="n">
-        <v>1.028693363398077</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="94">
@@ -7999,7 +7999,7 @@
         <v>44927</v>
       </c>
       <c r="B94" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="95">
@@ -8007,7 +8007,7 @@
         <v>44928</v>
       </c>
       <c r="B95" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="96">
@@ -8015,7 +8015,7 @@
         <v>44929</v>
       </c>
       <c r="B96" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="97">
@@ -8023,7 +8023,7 @@
         <v>44930</v>
       </c>
       <c r="B97" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="98">
@@ -8031,7 +8031,7 @@
         <v>44931</v>
       </c>
       <c r="B98" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="99">
@@ -8039,7 +8039,7 @@
         <v>44934</v>
       </c>
       <c r="B99" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="100">
@@ -8047,7 +8047,7 @@
         <v>44935</v>
       </c>
       <c r="B100" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="101">
@@ -8055,7 +8055,7 @@
         <v>44936</v>
       </c>
       <c r="B101" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="102">
@@ -8063,7 +8063,7 @@
         <v>44938</v>
       </c>
       <c r="B102" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="103">
@@ -8071,7 +8071,7 @@
         <v>44943</v>
       </c>
       <c r="B103" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="104">
@@ -8079,7 +8079,7 @@
         <v>44944</v>
       </c>
       <c r="B104" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="105">
@@ -8087,7 +8087,7 @@
         <v>44945</v>
       </c>
       <c r="B105" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="106">
@@ -8095,7 +8095,7 @@
         <v>44949</v>
       </c>
       <c r="B106" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="107">
@@ -8103,7 +8103,7 @@
         <v>44950</v>
       </c>
       <c r="B107" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="108">
@@ -8111,7 +8111,7 @@
         <v>44951</v>
       </c>
       <c r="B108" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="109">
@@ -8119,7 +8119,7 @@
         <v>44952</v>
       </c>
       <c r="B109" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="110">
@@ -8127,7 +8127,7 @@
         <v>44955</v>
       </c>
       <c r="B110" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="111">
@@ -8135,7 +8135,7 @@
         <v>44956</v>
       </c>
       <c r="B111" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="112">
@@ -8143,7 +8143,7 @@
         <v>44957</v>
       </c>
       <c r="B112" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="113">
@@ -8151,7 +8151,7 @@
         <v>44958</v>
       </c>
       <c r="B113" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="114">
@@ -8159,7 +8159,7 @@
         <v>44959</v>
       </c>
       <c r="B114" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="115">
@@ -8167,7 +8167,7 @@
         <v>44962</v>
       </c>
       <c r="B115" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="116">
@@ -8175,7 +8175,7 @@
         <v>44963</v>
       </c>
       <c r="B116" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="117">
@@ -8183,7 +8183,7 @@
         <v>44964</v>
       </c>
       <c r="B117" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="118">
@@ -8191,7 +8191,7 @@
         <v>44965</v>
       </c>
       <c r="B118" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="119">
@@ -8199,7 +8199,7 @@
         <v>44966</v>
       </c>
       <c r="B119" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="120">
@@ -8207,7 +8207,7 @@
         <v>44969</v>
       </c>
       <c r="B120" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="121">
@@ -8215,7 +8215,7 @@
         <v>44971</v>
       </c>
       <c r="B121" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="122">
@@ -8223,7 +8223,7 @@
         <v>44972</v>
       </c>
       <c r="B122" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="123">
@@ -8231,7 +8231,7 @@
         <v>44973</v>
       </c>
       <c r="B123" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="124">
@@ -8239,7 +8239,7 @@
         <v>44977</v>
       </c>
       <c r="B124" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="125">
@@ -8247,7 +8247,7 @@
         <v>44979</v>
       </c>
       <c r="B125" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="126">
@@ -8255,7 +8255,7 @@
         <v>44980</v>
       </c>
       <c r="B126" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="127">
@@ -8263,7 +8263,7 @@
         <v>44983</v>
       </c>
       <c r="B127" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="128">
@@ -8271,7 +8271,7 @@
         <v>44984</v>
       </c>
       <c r="B128" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="129">
@@ -8279,7 +8279,7 @@
         <v>44985</v>
       </c>
       <c r="B129" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="130">
@@ -8287,7 +8287,7 @@
         <v>44986</v>
       </c>
       <c r="B130" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="131">
@@ -8295,7 +8295,7 @@
         <v>44987</v>
       </c>
       <c r="B131" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="132">
@@ -8303,7 +8303,7 @@
         <v>44990</v>
       </c>
       <c r="B132" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="133">
@@ -8311,7 +8311,7 @@
         <v>44992</v>
       </c>
       <c r="B133" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="134">
@@ -8319,7 +8319,7 @@
         <v>44994</v>
       </c>
       <c r="B134" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="135">
@@ -8327,7 +8327,7 @@
         <v>44997</v>
       </c>
       <c r="B135" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="136">
@@ -8335,7 +8335,7 @@
         <v>44998</v>
       </c>
       <c r="B136" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="137">
@@ -8343,7 +8343,7 @@
         <v>44999</v>
       </c>
       <c r="B137" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="138">
@@ -8351,7 +8351,7 @@
         <v>45000</v>
       </c>
       <c r="B138" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="139">
@@ -8359,7 +8359,7 @@
         <v>45001</v>
       </c>
       <c r="B139" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="140">
@@ -8367,7 +8367,7 @@
         <v>45004</v>
       </c>
       <c r="B140" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="141">
@@ -8375,7 +8375,7 @@
         <v>45005</v>
       </c>
       <c r="B141" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="142">
@@ -8383,7 +8383,7 @@
         <v>45007</v>
       </c>
       <c r="B142" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="143">
@@ -8391,7 +8391,7 @@
         <v>45015</v>
       </c>
       <c r="B143" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="144">
@@ -8399,7 +8399,7 @@
         <v>45018</v>
       </c>
       <c r="B144" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="145">
@@ -8407,7 +8407,7 @@
         <v>45025</v>
       </c>
       <c r="B145" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="146">
@@ -8415,7 +8415,7 @@
         <v>45028</v>
       </c>
       <c r="B146" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="147">
@@ -8423,7 +8423,7 @@
         <v>45029</v>
       </c>
       <c r="B147" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="148">
@@ -8431,7 +8431,7 @@
         <v>45032</v>
       </c>
       <c r="B148" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="149">
@@ -8439,7 +8439,7 @@
         <v>45033</v>
       </c>
       <c r="B149" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="150">
@@ -8447,7 +8447,7 @@
         <v>45034</v>
       </c>
       <c r="B150" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="151">
@@ -8455,7 +8455,7 @@
         <v>45035</v>
       </c>
       <c r="B151" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="152">
@@ -8463,7 +8463,7 @@
         <v>45036</v>
       </c>
       <c r="B152" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="153">
@@ -8471,7 +8471,7 @@
         <v>45039</v>
       </c>
       <c r="B153" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="154">
@@ -8479,7 +8479,7 @@
         <v>45041</v>
       </c>
       <c r="B154" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="155">
@@ -8487,7 +8487,7 @@
         <v>45042</v>
       </c>
       <c r="B155" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="156">
@@ -8495,7 +8495,7 @@
         <v>45050</v>
       </c>
       <c r="B156" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="157">
@@ -8503,7 +8503,7 @@
         <v>45053</v>
       </c>
       <c r="B157" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="158">
@@ -8511,7 +8511,7 @@
         <v>45062</v>
       </c>
       <c r="B158" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="159">
@@ -8519,7 +8519,7 @@
         <v>45063</v>
       </c>
       <c r="B159" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="160">
@@ -8527,7 +8527,7 @@
         <v>45064</v>
       </c>
       <c r="B160" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="161">
@@ -8535,7 +8535,7 @@
         <v>45067</v>
       </c>
       <c r="B161" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="162">
@@ -8543,7 +8543,7 @@
         <v>45068</v>
       </c>
       <c r="B162" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="163">
@@ -8551,7 +8551,7 @@
         <v>45069</v>
       </c>
       <c r="B163" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="164">
@@ -8559,7 +8559,7 @@
         <v>45070</v>
       </c>
       <c r="B164" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="165">
@@ -8567,7 +8567,7 @@
         <v>45074</v>
       </c>
       <c r="B165" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="166">
@@ -8575,7 +8575,7 @@
         <v>45076</v>
       </c>
       <c r="B166" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="167">
@@ -8583,7 +8583,7 @@
         <v>45077</v>
       </c>
       <c r="B167" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="168">
@@ -8591,7 +8591,7 @@
         <v>45078</v>
       </c>
       <c r="B168" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="169">
@@ -8599,7 +8599,7 @@
         <v>45081</v>
       </c>
       <c r="B169" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="170">
@@ -8607,7 +8607,7 @@
         <v>45082</v>
       </c>
       <c r="B170" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="171">
@@ -8615,7 +8615,7 @@
         <v>45083</v>
       </c>
       <c r="B171" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="172">
@@ -8623,7 +8623,7 @@
         <v>45084</v>
       </c>
       <c r="B172" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="173">
@@ -8631,7 +8631,7 @@
         <v>45085</v>
       </c>
       <c r="B173" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="174">
@@ -8639,7 +8639,7 @@
         <v>45088</v>
       </c>
       <c r="B174" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="175">
@@ -8647,7 +8647,7 @@
         <v>45105</v>
       </c>
       <c r="B175" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="176">
@@ -8655,7 +8655,7 @@
         <v>45124</v>
       </c>
       <c r="B176" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="177">
@@ -8663,7 +8663,7 @@
         <v>45125</v>
       </c>
       <c r="B177" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="178">
@@ -8671,7 +8671,7 @@
         <v>45126</v>
       </c>
       <c r="B178" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="179">
@@ -8679,7 +8679,7 @@
         <v>45127</v>
       </c>
       <c r="B179" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="180">
@@ -8687,7 +8687,7 @@
         <v>45130</v>
       </c>
       <c r="B180" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="181">
@@ -8695,7 +8695,7 @@
         <v>45131</v>
       </c>
       <c r="B181" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="182">
@@ -8703,7 +8703,7 @@
         <v>45132</v>
       </c>
       <c r="B182" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="183">
@@ -8711,7 +8711,7 @@
         <v>45133</v>
       </c>
       <c r="B183" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="184">
@@ -8719,7 +8719,7 @@
         <v>45134</v>
       </c>
       <c r="B184" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="185">
@@ -8727,7 +8727,7 @@
         <v>45137</v>
       </c>
       <c r="B185" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="186">
@@ -8735,7 +8735,7 @@
         <v>45138</v>
       </c>
       <c r="B186" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="187">
@@ -8743,7 +8743,7 @@
         <v>45139</v>
       </c>
       <c r="B187" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="188">
@@ -8751,7 +8751,7 @@
         <v>45140</v>
       </c>
       <c r="B188" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="189">
@@ -8759,7 +8759,7 @@
         <v>45141</v>
       </c>
       <c r="B189" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="190">
@@ -8767,7 +8767,7 @@
         <v>45144</v>
       </c>
       <c r="B190" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="191">
@@ -8775,7 +8775,7 @@
         <v>45145</v>
       </c>
       <c r="B191" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="192">
@@ -8783,7 +8783,7 @@
         <v>45146</v>
       </c>
       <c r="B192" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="193">
@@ -8791,7 +8791,7 @@
         <v>45147</v>
       </c>
       <c r="B193" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="194">
@@ -8799,7 +8799,7 @@
         <v>45148</v>
       </c>
       <c r="B194" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="195">
@@ -8807,7 +8807,7 @@
         <v>45151</v>
       </c>
       <c r="B195" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="196">
@@ -8815,7 +8815,7 @@
         <v>45152</v>
       </c>
       <c r="B196" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="197">
@@ -8823,7 +8823,7 @@
         <v>45158</v>
       </c>
       <c r="B197" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="198">
@@ -8831,7 +8831,7 @@
         <v>45159</v>
       </c>
       <c r="B198" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="199">
@@ -8839,7 +8839,7 @@
         <v>45160</v>
       </c>
       <c r="B199" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="200">
@@ -8847,7 +8847,7 @@
         <v>45161</v>
       </c>
       <c r="B200" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="201">
@@ -8855,7 +8855,7 @@
         <v>45162</v>
       </c>
       <c r="B201" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="202">
@@ -8863,7 +8863,7 @@
         <v>45165</v>
       </c>
       <c r="B202" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="203">
@@ -8871,7 +8871,7 @@
         <v>45166</v>
       </c>
       <c r="B203" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="204">
@@ -8879,7 +8879,7 @@
         <v>45167</v>
       </c>
       <c r="B204" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="205">
@@ -8887,7 +8887,7 @@
         <v>45168</v>
       </c>
       <c r="B205" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="206">
@@ -8895,7 +8895,7 @@
         <v>45172</v>
       </c>
       <c r="B206" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="207">
@@ -8903,7 +8903,7 @@
         <v>45173</v>
       </c>
       <c r="B207" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="208">
@@ -8911,7 +8911,7 @@
         <v>45174</v>
       </c>
       <c r="B208" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="209">
@@ -8919,7 +8919,7 @@
         <v>45176</v>
       </c>
       <c r="B209" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="210">
@@ -8927,7 +8927,7 @@
         <v>45179</v>
       </c>
       <c r="B210" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="211">
@@ -8935,7 +8935,7 @@
         <v>45180</v>
       </c>
       <c r="B211" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="212">
@@ -8943,7 +8943,7 @@
         <v>45181</v>
       </c>
       <c r="B212" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="213">
@@ -8951,7 +8951,7 @@
         <v>45182</v>
       </c>
       <c r="B213" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="214">
@@ -8959,7 +8959,7 @@
         <v>45186</v>
       </c>
       <c r="B214" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="215">
@@ -8967,7 +8967,7 @@
         <v>45187</v>
       </c>
       <c r="B215" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="216">
@@ -8975,7 +8975,7 @@
         <v>45188</v>
       </c>
       <c r="B216" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="217">
@@ -8983,7 +8983,7 @@
         <v>45190</v>
       </c>
       <c r="B217" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="218">
@@ -8991,7 +8991,7 @@
         <v>45193</v>
       </c>
       <c r="B218" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="219">
@@ -8999,7 +8999,7 @@
         <v>45194</v>
       </c>
       <c r="B219" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="220">
@@ -9007,7 +9007,7 @@
         <v>45195</v>
       </c>
       <c r="B220" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="221">
@@ -9015,7 +9015,7 @@
         <v>45196</v>
       </c>
       <c r="B221" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="222">
@@ -9023,7 +9023,7 @@
         <v>45200</v>
       </c>
       <c r="B222" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="223">
@@ -9031,7 +9031,7 @@
         <v>45201</v>
       </c>
       <c r="B223" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="224">
@@ -9039,7 +9039,7 @@
         <v>45202</v>
       </c>
       <c r="B224" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="225">
@@ -9047,7 +9047,7 @@
         <v>45203</v>
       </c>
       <c r="B225" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="226">
@@ -9055,7 +9055,7 @@
         <v>45204</v>
       </c>
       <c r="B226" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="227">
@@ -9063,7 +9063,7 @@
         <v>45207</v>
       </c>
       <c r="B227" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="228">
@@ -9071,7 +9071,7 @@
         <v>45208</v>
       </c>
       <c r="B228" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="229">
@@ -9079,7 +9079,7 @@
         <v>45209</v>
       </c>
       <c r="B229" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="230">
@@ -9087,7 +9087,7 @@
         <v>45210</v>
       </c>
       <c r="B230" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="231">
@@ -9095,7 +9095,7 @@
         <v>45211</v>
       </c>
       <c r="B231" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="232">
@@ -9103,7 +9103,7 @@
         <v>45215</v>
       </c>
       <c r="B232" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="233">
@@ -9111,7 +9111,7 @@
         <v>45216</v>
       </c>
       <c r="B233" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="234">
@@ -9119,7 +9119,7 @@
         <v>45217</v>
       </c>
       <c r="B234" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="235">
@@ -9127,7 +9127,7 @@
         <v>45218</v>
       </c>
       <c r="B235" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="236">
@@ -9135,7 +9135,7 @@
         <v>45228</v>
       </c>
       <c r="B236" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="237">
@@ -9143,7 +9143,7 @@
         <v>45229</v>
       </c>
       <c r="B237" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="238">
@@ -9151,7 +9151,7 @@
         <v>45230</v>
       </c>
       <c r="B238" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="239">
@@ -9159,7 +9159,7 @@
         <v>45231</v>
       </c>
       <c r="B239" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="240">
@@ -9167,7 +9167,7 @@
         <v>45232</v>
       </c>
       <c r="B240" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="241">
@@ -9175,7 +9175,7 @@
         <v>45235</v>
       </c>
       <c r="B241" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="242">
@@ -9183,7 +9183,7 @@
         <v>45236</v>
       </c>
       <c r="B242" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="243">
@@ -9191,7 +9191,7 @@
         <v>45237</v>
       </c>
       <c r="B243" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="244">
@@ -9199,7 +9199,7 @@
         <v>45238</v>
       </c>
       <c r="B244" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="245">
@@ -9207,7 +9207,7 @@
         <v>45239</v>
       </c>
       <c r="B245" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="246">
@@ -9215,7 +9215,7 @@
         <v>45250</v>
       </c>
       <c r="B246" t="n">
-        <v>1.042726546884528</v>
+        <v>1.038066825775657</v>
       </c>
     </row>
     <row r="247">
@@ -9223,7 +9223,7 @@
         <v>45251</v>
       </c>
       <c r="B247" t="n">
-        <v>1.042726546884528</v>
+        <v>1.030717680106449</v>
       </c>
     </row>
     <row r="248">
@@ -9231,7 +9231,7 @@
         <v>45252</v>
       </c>
       <c r="B248" t="n">
-        <v>1.042726546884528</v>
+        <v>1.030717680106449</v>
       </c>
     </row>
     <row r="249">
@@ -9239,7 +9239,7 @@
         <v>45253</v>
       </c>
       <c r="B249" t="n">
-        <v>1.042726546884528</v>
+        <v>1.030717680106449</v>
       </c>
     </row>
     <row r="250">
@@ -9247,7 +9247,7 @@
         <v>45256</v>
       </c>
       <c r="B250" t="n">
-        <v>1.079981242928558</v>
+        <v>1.067543321492776</v>
       </c>
     </row>
     <row r="251">
@@ -9255,7 +9255,7 @@
         <v>45257</v>
       </c>
       <c r="B251" t="n">
-        <v>1.079981242928558</v>
+        <v>1.052733009196101</v>
       </c>
     </row>
     <row r="252">
@@ -9263,7 +9263,7 @@
         <v>45258</v>
       </c>
       <c r="B252" t="n">
-        <v>1.079981242928558</v>
+        <v>1.052733009196101</v>
       </c>
     </row>
     <row r="253">
@@ -9271,7 +9271,7 @@
         <v>45259</v>
       </c>
       <c r="B253" t="n">
-        <v>1.069327656199475</v>
+        <v>1.042348215488363</v>
       </c>
     </row>
     <row r="254">
@@ -9279,7 +9279,7 @@
         <v>45260</v>
       </c>
       <c r="B254" t="n">
-        <v>1.069327656199475</v>
+        <v>1.042348215488363</v>
       </c>
     </row>
     <row r="255">
@@ -9287,7 +9287,7 @@
         <v>45263</v>
       </c>
       <c r="B255" t="n">
-        <v>1.069327656199475</v>
+        <v>1.042348215488363</v>
       </c>
     </row>
     <row r="256">
@@ -9295,7 +9295,7 @@
         <v>45264</v>
       </c>
       <c r="B256" t="n">
-        <v>1.069327656199475</v>
+        <v>1.042348215488363</v>
       </c>
     </row>
     <row r="257">
@@ -9303,7 +9303,7 @@
         <v>45265</v>
       </c>
       <c r="B257" t="n">
-        <v>1.069327656199475</v>
+        <v>1.042348215488363</v>
       </c>
     </row>
     <row r="258">
@@ -9311,7 +9311,7 @@
         <v>45266</v>
       </c>
       <c r="B258" t="n">
-        <v>1.069327656199475</v>
+        <v>1.042348215488363</v>
       </c>
     </row>
     <row r="259">
@@ -9319,7 +9319,7 @@
         <v>45267</v>
       </c>
       <c r="B259" t="n">
-        <v>1.069327656199475</v>
+        <v>1.042348215488363</v>
       </c>
     </row>
     <row r="260">
@@ -9327,7 +9327,7 @@
         <v>45270</v>
       </c>
       <c r="B260" t="n">
-        <v>1.069327656199475</v>
+        <v>1.042348215488363</v>
       </c>
     </row>
     <row r="261">
@@ -9335,7 +9335,7 @@
         <v>45271</v>
       </c>
       <c r="B261" t="n">
-        <v>1.069327656199475</v>
+        <v>1.042348215488363</v>
       </c>
     </row>
     <row r="262">
@@ -9343,7 +9343,7 @@
         <v>45272</v>
       </c>
       <c r="B262" t="n">
-        <v>1.067688839868135</v>
+        <v>1.040750746958879</v>
       </c>
     </row>
     <row r="263">
@@ -9351,7 +9351,7 @@
         <v>45273</v>
       </c>
       <c r="B263" t="n">
-        <v>1.0672791357853</v>
+        <v>1.040351379826508</v>
       </c>
     </row>
     <row r="264">
@@ -9359,7 +9359,7 @@
         <v>45274</v>
       </c>
       <c r="B264" t="n">
-        <v>1.0672791357853</v>
+        <v>1.040351379826508</v>
       </c>
     </row>
     <row r="265">
@@ -9367,7 +9367,7 @@
         <v>45277</v>
       </c>
       <c r="B265" t="n">
-        <v>1.047272755657726</v>
+        <v>1.020849766356157</v>
       </c>
     </row>
     <row r="266">
@@ -9375,7 +9375,7 @@
         <v>45278</v>
       </c>
       <c r="B266" t="n">
-        <v>1.047272755657726</v>
+        <v>1.020849766356157</v>
       </c>
     </row>
     <row r="267">
@@ -9383,7 +9383,7 @@
         <v>45279</v>
       </c>
       <c r="B267" t="n">
-        <v>1.047272755657726</v>
+        <v>1.030799569147153</v>
       </c>
     </row>
     <row r="268">
@@ -9391,7 +9391,7 @@
         <v>45280</v>
       </c>
       <c r="B268" t="n">
-        <v>1.051316279810844</v>
+        <v>1.034779490263551</v>
       </c>
     </row>
     <row r="269">
@@ -9399,7 +9399,7 @@
         <v>45281</v>
       </c>
       <c r="B269" t="n">
-        <v>1.057381566040522</v>
+        <v>1.040749371938148</v>
       </c>
     </row>
     <row r="270">
@@ -9407,7 +9407,7 @@
         <v>45284</v>
       </c>
       <c r="B270" t="n">
-        <v>1.057381566040522</v>
+        <v>1.024829687472555</v>
       </c>
     </row>
     <row r="271">
@@ -9415,7 +9415,7 @@
         <v>45287</v>
       </c>
       <c r="B271" t="n">
-        <v>1.057381566040522</v>
+        <v>1.010899963565161</v>
       </c>
     </row>
     <row r="272">
@@ -9423,7 +9423,7 @@
         <v>45288</v>
       </c>
       <c r="B272" t="n">
-        <v>1.053218646489182</v>
+        <v>1.006920042448763</v>
       </c>
     </row>
     <row r="273">
@@ -9431,7 +9431,7 @@
         <v>45292</v>
       </c>
       <c r="B273" t="n">
-        <v>1.053218646489182</v>
+        <v>1.006920042448763</v>
       </c>
     </row>
     <row r="274">
@@ -9439,7 +9439,7 @@
         <v>45293</v>
       </c>
       <c r="B274" t="n">
-        <v>1.053218646489182</v>
+        <v>1.006920042448763</v>
       </c>
     </row>
     <row r="275">
@@ -9447,7 +9447,7 @@
         <v>45294</v>
       </c>
       <c r="B275" t="n">
-        <v>1.053218646489182</v>
+        <v>1.006920042448763</v>
       </c>
     </row>
     <row r="276">
@@ -9455,7 +9455,7 @@
         <v>45295</v>
       </c>
       <c r="B276" t="n">
-        <v>1.053218646489182</v>
+        <v>1.006920042448763</v>
       </c>
     </row>
     <row r="277">
@@ -9463,7 +9463,7 @@
         <v>45298</v>
       </c>
       <c r="B277" t="n">
-        <v>1.041528025791522</v>
+        <v>0.9957433315840442</v>
       </c>
     </row>
     <row r="278">
@@ -9471,7 +9471,7 @@
         <v>45299</v>
       </c>
       <c r="B278" t="n">
-        <v>1.03748944773233</v>
+        <v>0.9918822860125959</v>
       </c>
     </row>
     <row r="279">
@@ -9479,7 +9479,7 @@
         <v>45300</v>
       </c>
       <c r="B279" t="n">
-        <v>1.03748944773233</v>
+        <v>0.9957433315840442</v>
       </c>
     </row>
     <row r="280">
@@ -9487,7 +9487,7 @@
         <v>45301</v>
       </c>
       <c r="B280" t="n">
-        <v>1.041724098539401</v>
+        <v>0.9998075900803056</v>
       </c>
     </row>
     <row r="281">
@@ -9495,7 +9495,7 @@
         <v>45302</v>
       </c>
       <c r="B281" t="n">
-        <v>1.041724098539401</v>
+        <v>0.9998075900803056</v>
       </c>
     </row>
     <row r="282">
@@ -9503,7 +9503,7 @@
         <v>45305</v>
       </c>
       <c r="B282" t="n">
-        <v>1.041724098539401</v>
+        <v>1.002849601003471</v>
       </c>
     </row>
     <row r="283">
@@ -9511,7 +9511,7 @@
         <v>45307</v>
       </c>
       <c r="B283" t="n">
-        <v>1.055417135223943</v>
+        <v>1.016031648337187</v>
       </c>
     </row>
     <row r="284">
@@ -9519,7 +9519,7 @@
         <v>45308</v>
       </c>
       <c r="B284" t="n">
-        <v>1.055417135223943</v>
+        <v>1.022115670183517</v>
       </c>
     </row>
     <row r="285">
@@ -9527,7 +9527,7 @@
         <v>45309</v>
       </c>
       <c r="B285" t="n">
-        <v>1.042852645518896</v>
+        <v>1.009947626490856</v>
       </c>
     </row>
     <row r="286">
@@ -9535,7 +9535,7 @@
         <v>45312</v>
       </c>
       <c r="B286" t="n">
-        <v>1.032382237431357</v>
+        <v>0.9998075900803056</v>
       </c>
     </row>
     <row r="287">
@@ -9543,7 +9543,7 @@
         <v>45313</v>
       </c>
       <c r="B287" t="n">
-        <v>1.024005910961326</v>
+        <v>0.991695560951865</v>
       </c>
     </row>
     <row r="288">
@@ -9551,7 +9551,7 @@
         <v>45314</v>
       </c>
       <c r="B288" t="n">
-        <v>1.014582543682541</v>
+        <v>0.9825695281823693</v>
       </c>
     </row>
     <row r="289">
@@ -9559,7 +9559,7 @@
         <v>45315</v>
       </c>
       <c r="B289" t="n">
-        <v>1.015420176329544</v>
+        <v>0.9833807310952133</v>
       </c>
     </row>
     <row r="290">
@@ -9567,7 +9567,7 @@
         <v>45316</v>
       </c>
       <c r="B290" t="n">
-        <v>1.021911829343818</v>
+        <v>0.9896675536697548</v>
       </c>
     </row>
     <row r="291">
@@ -9575,7 +9575,7 @@
         <v>45319</v>
       </c>
       <c r="B291" t="n">
-        <v>1.028194074196341</v>
+        <v>0.9957515755160852</v>
       </c>
     </row>
     <row r="292">
@@ -9583,7 +9583,7 @@
         <v>45320</v>
       </c>
       <c r="B292" t="n">
-        <v>1.021911829343818</v>
+        <v>0.9896675536697547</v>
       </c>
     </row>
     <row r="293">
@@ -9591,7 +9591,7 @@
         <v>45321</v>
       </c>
       <c r="B293" t="n">
-        <v>1.01981774772631</v>
+        <v>0.9876395463876445</v>
       </c>
     </row>
     <row r="294">
@@ -9599,7 +9599,7 @@
         <v>45322</v>
       </c>
       <c r="B294" t="n">
-        <v>1.014791951844291</v>
+        <v>0.9827723289105801</v>
       </c>
     </row>
     <row r="295">
@@ -9607,7 +9607,7 @@
         <v>45323</v>
       </c>
       <c r="B295" t="n">
-        <v>1.00641562537426</v>
+        <v>0.9746602997821394</v>
       </c>
     </row>
     <row r="296">
@@ -9615,7 +9615,7 @@
         <v>45326</v>
       </c>
       <c r="B296" t="n">
-        <v>0.9988769315512316</v>
+        <v>0.9673594735665428</v>
       </c>
     </row>
     <row r="297">
@@ -9623,7 +9623,7 @@
         <v>45327</v>
       </c>
       <c r="B297" t="n">
-        <v>0.994688768316216</v>
+        <v>0.9633034590023226</v>
       </c>
     </row>
     <row r="298">
@@ -9631,7 +9631,7 @@
         <v>45328</v>
       </c>
       <c r="B298" t="n">
-        <v>0.994688768316216</v>
+        <v>0.9633034590023226</v>
       </c>
     </row>
     <row r="299">
@@ -9639,7 +9639,7 @@
         <v>45329</v>
       </c>
       <c r="B299" t="n">
-        <v>0.9948981764779667</v>
+        <v>0.9635062597305336</v>
       </c>
     </row>
     <row r="300">
@@ -9647,7 +9647,7 @@
         <v>45333</v>
       </c>
       <c r="B300" t="n">
-        <v>0.9946887683162159</v>
+        <v>0.9633034590023226</v>
       </c>
     </row>
     <row r="301">
@@ -9655,7 +9655,7 @@
         <v>45334</v>
       </c>
       <c r="B301" t="n">
-        <v>0.9946887683162159</v>
+        <v>0.9673594735665428</v>
       </c>
     </row>
     <row r="302">
@@ -9663,7 +9663,7 @@
         <v>45335</v>
       </c>
       <c r="B302" t="n">
-        <v>0.9832196106102636</v>
+        <v>0.9562054335149369</v>
       </c>
     </row>
     <row r="303">
@@ -9671,7 +9671,7 @@
         <v>45337</v>
       </c>
       <c r="B303" t="n">
-        <v>0.9644518980005238</v>
+        <v>0.9379533679759456</v>
       </c>
     </row>
     <row r="304">
@@ -9679,7 +9679,7 @@
         <v>45340</v>
       </c>
       <c r="B304" t="n">
-        <v>0.9544424512753291</v>
+        <v>0.9282189330218169</v>
       </c>
     </row>
     <row r="305">
@@ -9687,7 +9687,7 @@
         <v>45342</v>
       </c>
       <c r="B305" t="n">
-        <v>0.9363003290859139</v>
+        <v>0.9105752696674586</v>
       </c>
     </row>
     <row r="306">
@@ -9695,7 +9695,7 @@
         <v>45343</v>
       </c>
       <c r="B306" t="n">
-        <v>0.9363003290859139</v>
+        <v>0.9105752696674586</v>
       </c>
     </row>
     <row r="307">
@@ -9703,7 +9703,7 @@
         <v>45344</v>
       </c>
       <c r="B307" t="n">
-        <v>0.9363003290859139</v>
+        <v>0.9024632405390181</v>
       </c>
     </row>
     <row r="308">
@@ -9711,7 +9711,7 @@
         <v>45350</v>
       </c>
       <c r="B308" t="n">
-        <v>0.9152598722525225</v>
+        <v>0.8821831677179165</v>
       </c>
     </row>
     <row r="309">
@@ -9719,7 +9719,7 @@
         <v>45355</v>
       </c>
       <c r="B309" t="n">
-        <v>0.9642841366743242</v>
+        <v>0.9294357373910831</v>
       </c>
     </row>
     <row r="310">
@@ -9727,7 +9727,7 @@
         <v>45356</v>
       </c>
       <c r="B310" t="n">
-        <v>0.9384043747692529</v>
+        <v>0.9044912478211281</v>
       </c>
     </row>
     <row r="311">
@@ -9735,7 +9735,7 @@
         <v>45357</v>
       </c>
       <c r="B311" t="n">
-        <v>0.9299881920358963</v>
+        <v>0.8963792186926874</v>
       </c>
     </row>
     <row r="312">
@@ -9743,7 +9743,7 @@
         <v>45358</v>
       </c>
       <c r="B312" t="n">
-        <v>0.9373523519275833</v>
+        <v>0.9034772441800729</v>
       </c>
     </row>
     <row r="313">
@@ -9751,7 +9751,7 @@
         <v>45361</v>
       </c>
       <c r="B313" t="n">
-        <v>0.9463997483659417</v>
+        <v>0.9121976754931467</v>
       </c>
     </row>
     <row r="314">
@@ -9759,7 +9759,7 @@
         <v>45363</v>
       </c>
       <c r="B314" t="n">
-        <v>0.9867974254860529</v>
+        <v>0.9511354153096615</v>
       </c>
     </row>
     <row r="315">
@@ -9767,7 +9767,7 @@
         <v>45364</v>
       </c>
       <c r="B315" t="n">
-        <v>0.9867974254860529</v>
+        <v>0.9511354153096615</v>
       </c>
     </row>
     <row r="316">
@@ -9775,7 +9775,7 @@
         <v>45365</v>
       </c>
       <c r="B316" t="n">
-        <v>0.9845025477523643</v>
+        <v>0.94892347248336</v>
       </c>
     </row>
     <row r="317">
@@ -9783,7 +9783,7 @@
         <v>45369</v>
       </c>
       <c r="B317" t="n">
-        <v>0.9617623956639966</v>
+        <v>0.9270051299318266</v>
       </c>
     </row>
     <row r="318">
@@ -9791,7 +9791,7 @@
         <v>45370</v>
       </c>
       <c r="B318" t="n">
-        <v>0.9596761431788252</v>
+        <v>0.9249942728170071</v>
       </c>
     </row>
     <row r="319">
@@ -9799,7 +9799,7 @@
         <v>45371</v>
       </c>
       <c r="B319" t="n">
-        <v>0.9534173857233111</v>
+        <v>0.9189617014725484</v>
       </c>
     </row>
     <row r="320">
@@ -9807,7 +9807,7 @@
         <v>45372</v>
       </c>
       <c r="B320" t="n">
-        <v>0.940899870812283</v>
+        <v>0.906896558783631</v>
       </c>
     </row>
     <row r="321">
@@ -9815,7 +9815,7 @@
         <v>45376</v>
       </c>
       <c r="B321" t="n">
-        <v>0.9283823559012548</v>
+        <v>0.8948314160947135</v>
       </c>
     </row>
     <row r="322">
@@ -9823,7 +9823,7 @@
         <v>45377</v>
       </c>
       <c r="B322" t="n">
-        <v>0.9217063479487065</v>
+        <v>0.8883966733272909</v>
       </c>
     </row>
     <row r="323">
@@ -9831,7 +9831,7 @@
         <v>45378</v>
       </c>
       <c r="B323" t="n">
-        <v>0.9189942197179837</v>
+        <v>0.8857825590780254</v>
       </c>
     </row>
     <row r="324">
@@ -9839,7 +9839,7 @@
         <v>45379</v>
       </c>
       <c r="B324" t="n">
-        <v>0.9231667246883265</v>
+        <v>0.8898042733076647</v>
       </c>
     </row>
     <row r="325">
@@ -9847,7 +9847,7 @@
         <v>45382</v>
       </c>
       <c r="B325" t="n">
-        <v>0.9179510934753982</v>
+        <v>0.8847771305206158</v>
       </c>
     </row>
     <row r="326">
@@ -9855,7 +9855,7 @@
         <v>45383</v>
       </c>
       <c r="B326" t="n">
-        <v>0.9179510934753982</v>
+        <v>0.8827662734057962</v>
       </c>
     </row>
     <row r="327">
@@ -9863,7 +9863,7 @@
         <v>45384</v>
       </c>
       <c r="B327" t="n">
-        <v>0.9116780791691882</v>
+        <v>0.8767337020613374</v>
       </c>
     </row>
     <row r="328">
@@ -9871,7 +9871,7 @@
         <v>45385</v>
       </c>
       <c r="B328" t="n">
-        <v>0.9116780791691882</v>
+        <v>0.8727119878316982</v>
       </c>
     </row>
     <row r="329">
@@ -9879,7 +9879,7 @@
         <v>45386</v>
       </c>
       <c r="B329" t="n">
-        <v>0.9116780791691882</v>
+        <v>0.8727119878316982</v>
       </c>
     </row>
     <row r="330">
@@ -9887,7 +9887,7 @@
         <v>45389</v>
       </c>
       <c r="B330" t="n">
-        <v>0.9200806421108396</v>
+        <v>0.8807554162909765</v>
       </c>
     </row>
     <row r="331">
@@ -9895,7 +9895,7 @@
         <v>45391</v>
       </c>
       <c r="B331" t="n">
-        <v>0.9221812828462526</v>
+        <v>0.8827662734057962</v>
       </c>
     </row>
     <row r="332">
@@ -9903,7 +9903,7 @@
         <v>45392</v>
       </c>
       <c r="B332" t="n">
-        <v>0.9200806421108397</v>
+        <v>0.8807554162909765</v>
       </c>
     </row>
     <row r="333">
@@ -9911,7 +9911,7 @@
         <v>45396</v>
       </c>
       <c r="B333" t="n">
-        <v>0.9200806421108397</v>
+        <v>0.8807554162909765</v>
       </c>
     </row>
     <row r="334">
@@ -9919,7 +9919,7 @@
         <v>45397</v>
       </c>
       <c r="B334" t="n">
-        <v>0.913778719904601</v>
+        <v>0.8747228449465178</v>
       </c>
     </row>
     <row r="335">
@@ -9927,7 +9927,7 @@
         <v>45398</v>
       </c>
       <c r="B335" t="n">
-        <v>0.9095774384337753</v>
+        <v>0.8707011307168786</v>
       </c>
     </row>
     <row r="336">
@@ -9935,7 +9935,7 @@
         <v>45400</v>
       </c>
       <c r="B336" t="n">
-        <v>0.9030654521539953</v>
+        <v>0.8644674736609378</v>
       </c>
     </row>
     <row r="337">
@@ -9943,7 +9943,7 @@
         <v>45403</v>
       </c>
       <c r="B337" t="n">
-        <v>0.8990742347567109</v>
+        <v>0.8606468451427807</v>
       </c>
     </row>
     <row r="338">
@@ -9951,7 +9951,7 @@
         <v>45404</v>
       </c>
       <c r="B338" t="n">
-        <v>0.9011748754921237</v>
+        <v>0.8626577022576002</v>
       </c>
     </row>
     <row r="339">
@@ -9959,7 +9959,7 @@
         <v>45406</v>
       </c>
       <c r="B339" t="n">
-        <v>0.9011748754921237</v>
+        <v>0.8626577022576002</v>
       </c>
     </row>
     <row r="340">
@@ -9967,7 +9967,7 @@
         <v>45407</v>
       </c>
       <c r="B340" t="n">
-        <v>0.8976037862419218</v>
+        <v>0.8592392451624069</v>
       </c>
     </row>
     <row r="341">
@@ -9975,7 +9975,7 @@
         <v>45410</v>
       </c>
       <c r="B341" t="n">
-        <v>0.8969735940212979</v>
+        <v>0.858635988027961</v>
       </c>
     </row>
     <row r="342">
@@ -9983,7 +9983,7 @@
         <v>45411</v>
       </c>
       <c r="B342" t="n">
-        <v>0.9011748754921237</v>
+        <v>0.8626577022576002</v>
       </c>
     </row>
     <row r="343">
@@ -9991,7 +9991,7 @@
         <v>45412</v>
       </c>
       <c r="B343" t="n">
-        <v>0.906426477330656</v>
+        <v>0.8676848450446492</v>
       </c>
     </row>
     <row r="344">
@@ -9999,7 +9999,7 @@
         <v>45414</v>
       </c>
       <c r="B344" t="n">
-        <v>0.9022251958598302</v>
+        <v>0.86366313081501</v>
       </c>
     </row>
     <row r="345">
@@ -10007,7 +10007,7 @@
         <v>45417</v>
       </c>
       <c r="B345" t="n">
-        <v>0.8948729532858851</v>
+        <v>0.8566251309131414</v>
       </c>
     </row>
     <row r="346">
@@ -10015,7 +10015,7 @@
         <v>45418</v>
       </c>
       <c r="B346" t="n">
-        <v>0.8906716718150594</v>
+        <v>0.8526034166835023</v>
       </c>
     </row>
     <row r="347">
@@ -10023,7 +10023,7 @@
         <v>45419</v>
       </c>
       <c r="B347" t="n">
-        <v>0.8864703903442336</v>
+        <v>0.848581702453863</v>
       </c>
     </row>
     <row r="348">
@@ -10031,7 +10031,7 @@
         <v>45420</v>
       </c>
       <c r="B348" t="n">
-        <v>0.8917219921827657</v>
+        <v>0.853608845240912</v>
       </c>
     </row>
     <row r="349">
@@ -10039,7 +10039,7 @@
         <v>45421</v>
       </c>
       <c r="B349" t="n">
-        <v>0.8879408388590225</v>
+        <v>0.8499893024342368</v>
       </c>
     </row>
     <row r="350">
@@ -10047,7 +10047,7 @@
         <v>45424</v>
       </c>
       <c r="B350" t="n">
-        <v>0.8864703903442335</v>
+        <v>0.8485817024538631</v>
       </c>
     </row>
     <row r="351">
@@ -10055,7 +10055,7 @@
         <v>45425</v>
       </c>
       <c r="B351" t="n">
-        <v>0.8864703903442335</v>
+        <v>0.8485817024538631</v>
       </c>
     </row>
     <row r="352">
@@ -10063,7 +10063,7 @@
         <v>45426</v>
       </c>
       <c r="B352" t="n">
-        <v>0.8920262632642182</v>
+        <v>0.8539001114525293</v>
       </c>
     </row>
     <row r="353">
@@ -10071,7 +10071,7 @@
         <v>45427</v>
       </c>
       <c r="B353" t="n">
-        <v>0.8930551286197709</v>
+        <v>0.8548850020078378</v>
       </c>
     </row>
     <row r="354">
@@ -10079,7 +10079,7 @@
         <v>45428</v>
       </c>
       <c r="B354" t="n">
-        <v>0.8868819364864544</v>
+        <v>0.8489756586759863</v>
       </c>
     </row>
     <row r="355">
@@ -10087,7 +10087,7 @@
         <v>45431</v>
       </c>
       <c r="B355" t="n">
-        <v>0.8992283207530871</v>
+        <v>0.8607943453396891</v>
       </c>
     </row>
     <row r="356">
@@ -10095,7 +10095,7 @@
         <v>45432</v>
       </c>
       <c r="B356" t="n">
-        <v>0.9424406656863018</v>
+        <v>0.902159748662649</v>
       </c>
     </row>
     <row r="357">
@@ -10103,7 +10103,7 @@
         <v>45433</v>
       </c>
       <c r="B357" t="n">
-        <v>0.9424406656863018</v>
+        <v>0.9472677360957815</v>
       </c>
     </row>
     <row r="358">
@@ -10111,7 +10111,7 @@
         <v>45434</v>
       </c>
       <c r="B358" t="n">
-        <v>1.007308176674484</v>
+        <v>1.012467490857209</v>
       </c>
     </row>
     <row r="359">
@@ -10119,7 +10119,7 @@
         <v>45438</v>
       </c>
       <c r="B359" t="n">
-        <v>1.007308176674484</v>
+        <v>1.012467490857209</v>
       </c>
     </row>
     <row r="360">
@@ -10127,7 +10127,7 @@
         <v>45439</v>
       </c>
       <c r="B360" t="n">
-        <v>0.9895779940676406</v>
+        <v>1.012467490857209</v>
       </c>
     </row>
     <row r="361">
@@ -10135,7 +10135,7 @@
         <v>45441</v>
       </c>
       <c r="B361" t="n">
-        <v>0.9895779940676406</v>
+        <v>1.012467490857209</v>
       </c>
     </row>
     <row r="362">
@@ -10143,7 +10143,7 @@
         <v>45442</v>
       </c>
       <c r="B362" t="n">
-        <v>0.9679246514571626</v>
+        <v>0.990313294227</v>
       </c>
     </row>
     <row r="363">
@@ -10151,7 +10151,7 @@
         <v>45445</v>
       </c>
       <c r="B363" t="n">
-        <v>0.9916016709471245</v>
+        <v>1.014537976523583</v>
       </c>
     </row>
     <row r="364">
@@ -10159,7 +10159,7 @@
         <v>45446</v>
       </c>
       <c r="B364" t="n">
-        <v>0.9812809188617564</v>
+        <v>1.003978499625072</v>
       </c>
     </row>
     <row r="365">
@@ -10167,7 +10167,7 @@
         <v>45447</v>
       </c>
       <c r="B365" t="n">
-        <v>0.9812809188617564</v>
+        <v>1.003978499625072</v>
       </c>
     </row>
     <row r="366">
@@ -10175,7 +10175,7 @@
         <v>45448</v>
       </c>
       <c r="B366" t="n">
-        <v>0.9751860063222424</v>
+        <v>0.9977426083230534</v>
       </c>
     </row>
     <row r="367">
@@ -10183,7 +10183,7 @@
         <v>45449</v>
       </c>
       <c r="B367" t="n">
-        <v>0.9751860063222424</v>
+        <v>0.9915067170210343</v>
       </c>
     </row>
     <row r="368">
@@ -10191,7 +10191,7 @@
         <v>45452</v>
       </c>
       <c r="B368" t="n">
-        <v>0.969052760999461</v>
+        <v>0.9852708257190153</v>
       </c>
     </row>
     <row r="369">
@@ -10199,7 +10199,7 @@
         <v>45453</v>
       </c>
       <c r="B369" t="n">
-        <v>0.969052760999461</v>
+        <v>0.9727990431149771</v>
       </c>
     </row>
     <row r="370">
@@ -10207,7 +10207,7 @@
         <v>45454</v>
       </c>
       <c r="B370" t="n">
-        <v>0.969052760999461</v>
+        <v>0.9727990431149771</v>
       </c>
     </row>
     <row r="371">
@@ -10215,7 +10215,7 @@
         <v>45455</v>
       </c>
       <c r="B371" t="n">
-        <v>0.9791892961563591</v>
+        <v>0.9829747653232926</v>
       </c>
     </row>
     <row r="372">
@@ -10223,7 +10223,7 @@
         <v>45456</v>
       </c>
       <c r="B372" t="n">
-        <v>0.9712827987339786</v>
+        <v>0.9750377020008065</v>
       </c>
     </row>
     <row r="373">
@@ -10231,7 +10231,7 @@
         <v>45459</v>
       </c>
       <c r="B373" t="n">
-        <v>0.9629708399053222</v>
+        <v>0.9666936097899876</v>
       </c>
     </row>
     <row r="374">
@@ -10239,7 +10239,7 @@
         <v>45461</v>
       </c>
       <c r="B374" t="n">
-        <v>0.9629708399053222</v>
+        <v>0.9666936097899876</v>
       </c>
     </row>
     <row r="375">
@@ -10247,7 +10247,7 @@
         <v>45462</v>
       </c>
       <c r="B375" t="n">
-        <v>0.9629708399053222</v>
+        <v>0.9666936097899876</v>
       </c>
     </row>
     <row r="376">
@@ -10255,7 +10255,7 @@
         <v>45463</v>
       </c>
       <c r="B376" t="n">
-        <v>0.9629708399053222</v>
+        <v>0.9666936097899876</v>
       </c>
     </row>
     <row r="377">
@@ -10263,7 +10263,7 @@
         <v>45466</v>
       </c>
       <c r="B377" t="n">
-        <v>0.9545722429182729</v>
+        <v>0.9582625444844378</v>
       </c>
     </row>
     <row r="378">
@@ -10271,7 +10271,7 @@
         <v>45467</v>
       </c>
       <c r="B378" t="n">
-        <v>0.9445348952996044</v>
+        <v>0.9481863932656101</v>
       </c>
     </row>
     <row r="379">
@@ -10279,7 +10279,7 @@
         <v>45468</v>
       </c>
       <c r="B379" t="n">
-        <v>0.9385944242599842</v>
+        <v>0.9422229568299771</v>
       </c>
     </row>
     <row r="380">
@@ -10287,7 +10287,7 @@
         <v>45469</v>
       </c>
       <c r="B380" t="n">
-        <v>0.934087860023031</v>
+        <v>0.9376989705684627</v>
       </c>
     </row>
     <row r="381">
@@ -10295,7 +10295,7 @@
         <v>45470</v>
       </c>
       <c r="B381" t="n">
-        <v>0.934087860023031</v>
+        <v>0.9376989705684627</v>
       </c>
     </row>
     <row r="382">
@@ -10303,7 +10303,7 @@
         <v>45473</v>
       </c>
       <c r="B382" t="n">
-        <v>0.9258941068649342</v>
+        <v>0.9294735410020727</v>
       </c>
     </row>
     <row r="383">
@@ -10311,7 +10311,7 @@
         <v>45474</v>
       </c>
       <c r="B383" t="n">
-        <v>0.9398234872336988</v>
+        <v>0.9434567712649358</v>
       </c>
     </row>
     <row r="384">
@@ -10319,7 +10319,7 @@
         <v>45475</v>
       </c>
       <c r="B384" t="n">
-        <v>0.9773099079319916</v>
+        <v>0.9810881115311701</v>
       </c>
     </row>
     <row r="385">
@@ -10327,7 +10327,7 @@
         <v>45476</v>
       </c>
       <c r="B385" t="n">
-        <v>0.9914441321297085</v>
+        <v>0.9952769775331929</v>
       </c>
     </row>
     <row r="386">
@@ -10335,7 +10335,7 @@
         <v>45477</v>
       </c>
       <c r="B386" t="n">
-        <v>0.9975894469982811</v>
+        <v>1.001446049707985</v>
       </c>
     </row>
     <row r="387">
@@ -10343,7 +10343,7 @@
         <v>45480</v>
       </c>
       <c r="B387" t="n">
-        <v>0.9975894469982811</v>
+        <v>1.001446049707985</v>
       </c>
     </row>
     <row r="388">
@@ -10351,7 +10351,7 @@
         <v>45481</v>
       </c>
       <c r="B388" t="n">
-        <v>1.003734761866854</v>
+        <v>1.007615121882778</v>
       </c>
     </row>
     <row r="389">
@@ -10359,7 +10359,7 @@
         <v>45482</v>
       </c>
       <c r="B389" t="n">
-        <v>1.003734761866854</v>
+        <v>1.008026393361097</v>
       </c>
     </row>
     <row r="390">
@@ -10367,7 +10367,7 @@
         <v>45483</v>
       </c>
       <c r="B390" t="n">
-        <v>1.003734761866854</v>
+        <v>1.02221525936312</v>
       </c>
     </row>
     <row r="391">
@@ -10375,7 +10375,7 @@
         <v>45484</v>
       </c>
       <c r="B391" t="n">
-        <v>1.023724651511758</v>
+        <v>1.042573197539935</v>
       </c>
     </row>
     <row r="392">
@@ -10383,7 +10383,7 @@
         <v>45487</v>
       </c>
       <c r="B392" t="n">
-        <v>1.023724651511758</v>
+        <v>1.042573197539935</v>
       </c>
     </row>
     <row r="393">
@@ -10391,7 +10391,7 @@
         <v>45488</v>
       </c>
       <c r="B393" t="n">
-        <v>1.023724651511758</v>
+        <v>1.032719008527271</v>
       </c>
     </row>
     <row r="394">
@@ -10399,7 +10399,7 @@
         <v>45489</v>
       </c>
       <c r="B394" t="n">
-        <v>1.041112341203465</v>
+        <v>1.050259464969814</v>
       </c>
     </row>
     <row r="395">
@@ -10407,7 +10407,7 @@
         <v>45490</v>
       </c>
       <c r="B395" t="n">
-        <v>1.051076073498713</v>
+        <v>1.060310737762732</v>
       </c>
     </row>
     <row r="396">
@@ -10415,7 +10415,7 @@
         <v>45495</v>
       </c>
       <c r="B396" t="n">
-        <v>1.12140830146517</v>
+        <v>1.131260898653919</v>
       </c>
     </row>
     <row r="397">
@@ -10423,7 +10423,7 @@
         <v>45496</v>
       </c>
       <c r="B397" t="n">
-        <v>1.131176666460511</v>
+        <v>1.141115087666583</v>
       </c>
     </row>
     <row r="398">
@@ -10431,7 +10431,7 @@
         <v>45497</v>
       </c>
       <c r="B398" t="n">
-        <v>1.131176666460511</v>
+        <v>1.141115087666583</v>
       </c>
     </row>
     <row r="399">
@@ -10439,7 +10439,7 @@
         <v>45498</v>
       </c>
       <c r="B399" t="n">
-        <v>1.125120280163399</v>
+        <v>1.135005490478731</v>
       </c>
     </row>
     <row r="400">
@@ -10447,7 +10447,7 @@
         <v>45501</v>
       </c>
       <c r="B400" t="n">
-        <v>1.125120280163399</v>
+        <v>1.248328664124376</v>
       </c>
     </row>
     <row r="401">
@@ -10455,7 +10455,7 @@
         <v>45502</v>
       </c>
       <c r="B401" t="n">
-        <v>1.125120280163399</v>
+        <v>1.279073733843891</v>
       </c>
     </row>
     <row r="402">
@@ -10463,7 +10463,7 @@
         <v>45503</v>
       </c>
       <c r="B402" t="n">
-        <v>1.125120280163399</v>
+        <v>1.269219544831226</v>
       </c>
     </row>
     <row r="403">
@@ -10471,7 +10471,7 @@
         <v>45504</v>
       </c>
       <c r="B403" t="n">
-        <v>1.134379810419403</v>
+        <v>1.279664985184651</v>
       </c>
     </row>
     <row r="404">
@@ -10479,7 +10479,7 @@
         <v>45505</v>
       </c>
       <c r="B404" t="n">
-        <v>1.126867361343777</v>
+        <v>1.271190382633759</v>
       </c>
     </row>
     <row r="405">
@@ -10487,7 +10487,7 @@
         <v>45509</v>
       </c>
       <c r="B405" t="n">
-        <v>1.126867361343777</v>
+        <v>1.271190382633759</v>
       </c>
     </row>
     <row r="406">
@@ -10495,7 +10495,7 @@
         <v>45510</v>
       </c>
       <c r="B406" t="n">
-        <v>1.067109243696759</v>
+        <v>1.203778771433484</v>
       </c>
     </row>
     <row r="407">
@@ -10503,7 +10503,7 @@
         <v>45515</v>
       </c>
       <c r="B407" t="n">
-        <v>1.067109243696759</v>
+        <v>1.230936020517024</v>
       </c>
     </row>
     <row r="408">
@@ -10511,7 +10511,7 @@
         <v>45516</v>
       </c>
       <c r="B408" t="n">
-        <v>1.067109243696759</v>
+        <v>1.245959179584514</v>
       </c>
     </row>
     <row r="409">
@@ -10519,7 +10519,7 @@
         <v>45517</v>
       </c>
       <c r="B409" t="n">
-        <v>1.067109243696759</v>
+        <v>1.247885225618807</v>
       </c>
     </row>
     <row r="410">
@@ -10527,7 +10527,7 @@
         <v>45518</v>
       </c>
       <c r="B410" t="n">
-        <v>1.067109243696759</v>
+        <v>1.247885225618807</v>
       </c>
     </row>
     <row r="411">
@@ -10535,7 +10535,7 @@
         <v>45519</v>
       </c>
       <c r="B411" t="n">
-        <v>1.067109243696759</v>
+        <v>1.247885225618807</v>
       </c>
     </row>
     <row r="412">
@@ -10543,7 +10543,7 @@
         <v>45522</v>
       </c>
       <c r="B412" t="n">
-        <v>1.067109243696759</v>
+        <v>1.25166669599947</v>
       </c>
     </row>
     <row r="413">
@@ -10551,7 +10551,7 @@
         <v>45525</v>
       </c>
       <c r="B413" t="n">
-        <v>1.067109243696759</v>
+        <v>1.25166669599947</v>
       </c>
     </row>
     <row r="414">
@@ -10559,7 +10559,7 @@
         <v>45526</v>
       </c>
       <c r="B414" t="n">
-        <v>1.067109243696759</v>
+        <v>1.25166669599947</v>
       </c>
     </row>
     <row r="415">
@@ -10567,7 +10567,7 @@
         <v>45529</v>
       </c>
       <c r="B415" t="n">
-        <v>1.067109243696759</v>
+        <v>1.25166669599947</v>
       </c>
     </row>
     <row r="416">
@@ -10575,7 +10575,7 @@
         <v>45531</v>
       </c>
       <c r="B416" t="n">
-        <v>1.067109243696759</v>
+        <v>1.25166669599947</v>
       </c>
     </row>
     <row r="417">
@@ -10583,7 +10583,7 @@
         <v>45532</v>
       </c>
       <c r="B417" t="n">
-        <v>1.067109243696759</v>
+        <v>1.25166669599947</v>
       </c>
     </row>
     <row r="418">
@@ -10591,7 +10591,7 @@
         <v>45533</v>
       </c>
       <c r="B418" t="n">
-        <v>1.067109243696759</v>
+        <v>1.25166669599947</v>
       </c>
     </row>
     <row r="419">
@@ -10599,7 +10599,7 @@
         <v>45536</v>
       </c>
       <c r="B419" t="n">
-        <v>1.067109243696759</v>
+        <v>1.25166669599947</v>
       </c>
     </row>
     <row r="420">
@@ -10607,7 +10607,7 @@
         <v>45537</v>
       </c>
       <c r="B420" t="n">
-        <v>1.067109243696759</v>
+        <v>1.25166669599947</v>
       </c>
     </row>
     <row r="421">
@@ -10615,7 +10615,7 @@
         <v>45538</v>
       </c>
       <c r="B421" t="n">
-        <v>1.067109243696759</v>
+        <v>1.25166669599947</v>
       </c>
     </row>
     <row r="422">
@@ -10623,7 +10623,7 @@
         <v>45539</v>
       </c>
       <c r="B422" t="n">
-        <v>1.067109243696759</v>
+        <v>1.25166669599947</v>
       </c>
     </row>
     <row r="423">
@@ -10631,7 +10631,7 @@
         <v>45540</v>
       </c>
       <c r="B423" t="n">
-        <v>1.067109243696759</v>
+        <v>1.25166669599947</v>
       </c>
     </row>
     <row r="424">
@@ -10639,7 +10639,7 @@
         <v>45543</v>
       </c>
       <c r="B424" t="n">
-        <v>1.067109243696759</v>
+        <v>1.238980884891367</v>
       </c>
     </row>
     <row r="425">
@@ -10647,7 +10647,7 @@
         <v>45550</v>
       </c>
       <c r="B425" t="n">
-        <v>1.067109243696759</v>
+        <v>1.238980884891367</v>
       </c>
     </row>
     <row r="426">
@@ -10655,7 +10655,7 @@
         <v>45557</v>
       </c>
       <c r="B426" t="n">
-        <v>1.050289658419577</v>
+        <v>1.219452289507791</v>
       </c>
     </row>
     <row r="427">
@@ -10663,7 +10663,7 @@
         <v>45558</v>
       </c>
       <c r="B427" t="n">
-        <v>1.050289658419577</v>
+        <v>1.232471353096842</v>
       </c>
     </row>
     <row r="428">
@@ -10671,7 +10671,7 @@
         <v>45559</v>
       </c>
       <c r="B428" t="n">
-        <v>1.050289658419577</v>
+        <v>1.201008616089968</v>
       </c>
     </row>
     <row r="429">
@@ -10679,7 +10679,7 @@
         <v>45560</v>
       </c>
       <c r="B429" t="n">
-        <v>1.050289658419577</v>
+        <v>1.204263381987231</v>
       </c>
     </row>
     <row r="430">
@@ -10687,7 +10687,7 @@
         <v>45561</v>
       </c>
       <c r="B430" t="n">
-        <v>1.040827589424806</v>
+        <v>1.193414162329688</v>
       </c>
     </row>
     <row r="431">
@@ -10695,7 +10695,7 @@
         <v>45565</v>
       </c>
       <c r="B431" t="n">
-        <v>1.040827589424806</v>
+        <v>1.193414162329688</v>
       </c>
     </row>
     <row r="432">
@@ -10703,7 +10703,7 @@
         <v>45566</v>
       </c>
       <c r="B432" t="n">
-        <v>1.040827589424806</v>
+        <v>1.193414162329688</v>
       </c>
     </row>
     <row r="433">
@@ -10711,7 +10711,7 @@
         <v>45567</v>
       </c>
       <c r="B433" t="n">
-        <v>1.035330260607421</v>
+        <v>1.193414162329688</v>
       </c>
     </row>
     <row r="434">
@@ -10719,7 +10719,7 @@
         <v>45571</v>
       </c>
       <c r="B434" t="n">
-        <v>1.051822247059575</v>
+        <v>1.212424299428745</v>
       </c>
     </row>
     <row r="435">
@@ -10727,7 +10727,7 @@
         <v>45572</v>
       </c>
       <c r="B435" t="n">
-        <v>1.083889998494318</v>
+        <v>1.249388454899134</v>
       </c>
     </row>
     <row r="436">
@@ -10735,7 +10735,7 @@
         <v>45573</v>
       </c>
       <c r="B436" t="n">
-        <v>1.082973777024754</v>
+        <v>1.248332336171408</v>
       </c>
     </row>
     <row r="437">
@@ -10743,7 +10743,7 @@
         <v>45574</v>
       </c>
       <c r="B437" t="n">
-        <v>1.08663866290301</v>
+        <v>1.25255681108231</v>
       </c>
     </row>
     <row r="438">
@@ -10751,7 +10751,7 @@
         <v>45580</v>
       </c>
       <c r="B438" t="n">
-        <v>1.08663866290301</v>
+        <v>1.25255681108231</v>
       </c>
     </row>
     <row r="439">
@@ -10759,7 +10759,7 @@
         <v>45581</v>
       </c>
       <c r="B439" t="n">
-        <v>1.08663866290301</v>
+        <v>1.269257568563407</v>
       </c>
     </row>
     <row r="440">
@@ -10767,7 +10767,7 @@
         <v>45582</v>
       </c>
       <c r="B440" t="n">
-        <v>1.08663866290301</v>
+        <v>1.269257568563407</v>
       </c>
     </row>
     <row r="441">
@@ -10775,7 +10775,7 @@
         <v>45585</v>
       </c>
       <c r="B441" t="n">
-        <v>1.068560833063906</v>
+        <v>1.248141605060705</v>
       </c>
     </row>
     <row r="442">
@@ -10783,7 +10783,7 @@
         <v>45586</v>
       </c>
       <c r="B442" t="n">
-        <v>1.047977165425321</v>
+        <v>1.224098676320005</v>
       </c>
     </row>
     <row r="443">
@@ -10791,7 +10791,7 @@
         <v>45587</v>
       </c>
       <c r="B443" t="n">
-        <v>1.047977165425321</v>
+        <v>1.224098676320005</v>
       </c>
     </row>
     <row r="444">
@@ -10799,7 +10799,7 @@
         <v>45588</v>
       </c>
       <c r="B444" t="n">
-        <v>1.053296846468089</v>
+        <v>1.224098676320005</v>
       </c>
     </row>
     <row r="445">
@@ -10807,7 +10807,7 @@
         <v>45589</v>
       </c>
       <c r="B445" t="n">
-        <v>1.048863778932449</v>
+        <v>1.218946745864113</v>
       </c>
     </row>
     <row r="446">
@@ -10815,7 +10815,7 @@
         <v>45592</v>
       </c>
       <c r="B446" t="n">
-        <v>1.040884257368297</v>
+        <v>1.209673271043507</v>
       </c>
     </row>
     <row r="447">
@@ -10823,7 +10823,7 @@
         <v>45593</v>
       </c>
       <c r="B447" t="n">
-        <v>1.040884257368297</v>
+        <v>1.209673271043507</v>
       </c>
     </row>
     <row r="448">
@@ -10831,7 +10831,7 @@
         <v>45594</v>
       </c>
       <c r="B448" t="n">
-        <v>1.040884257368297</v>
+        <v>1.209673271043507</v>
       </c>
     </row>
     <row r="449">
@@ -10839,7 +10839,7 @@
         <v>45595</v>
       </c>
       <c r="B449" t="n">
-        <v>1.040884257368297</v>
+        <v>1.209673271043507</v>
       </c>
     </row>
     <row r="450">
@@ -10847,7 +10847,7 @@
         <v>45601</v>
       </c>
       <c r="B450" t="n">
-        <v>1.024620440846917</v>
+        <v>1.190772126183452</v>
       </c>
     </row>
     <row r="451">
@@ -10855,7 +10855,7 @@
         <v>45602</v>
       </c>
       <c r="B451" t="n">
-        <v>1.020283423107883</v>
+        <v>1.190772126183452</v>
       </c>
     </row>
     <row r="452">
@@ -10863,7 +10863,7 @@
         <v>45606</v>
       </c>
       <c r="B452" t="n">
-        <v>1.03004171302071</v>
+        <v>1.190772126183452</v>
       </c>
     </row>
     <row r="453">
@@ -10871,7 +10871,7 @@
         <v>45607</v>
       </c>
       <c r="B453" t="n">
-        <v>1.028234622296113</v>
+        <v>1.190772126183452</v>
       </c>
     </row>
     <row r="454">
@@ -10879,7 +10879,7 @@
         <v>45608</v>
       </c>
       <c r="B454" t="n">
-        <v>1.023174768267239</v>
+        <v>1.190772126183452</v>
       </c>
     </row>
     <row r="455">
@@ -10887,7 +10887,7 @@
         <v>45609</v>
       </c>
       <c r="B455" t="n">
-        <v>1.023174768267239</v>
+        <v>1.190772126183452</v>
       </c>
     </row>
     <row r="456">
@@ -10895,7 +10895,7 @@
         <v>45610</v>
       </c>
       <c r="B456" t="n">
-        <v>1.023174768267239</v>
+        <v>1.190772126183452</v>
       </c>
     </row>
     <row r="457">
@@ -10903,7 +10903,7 @@
         <v>45613</v>
       </c>
       <c r="B457" t="n">
-        <v>1.023174768267239</v>
+        <v>1.190772126183452</v>
       </c>
     </row>
     <row r="458">
@@ -10911,7 +10911,7 @@
         <v>45615</v>
       </c>
       <c r="B458" t="n">
-        <v>1.018988143170255</v>
+        <v>1.185899726449913</v>
       </c>
     </row>
     <row r="459">
@@ -10919,7 +10919,7 @@
         <v>45616</v>
       </c>
       <c r="B459" t="n">
-        <v>1.018988143170255</v>
+        <v>1.185899726449913</v>
       </c>
     </row>
     <row r="460">
@@ -10927,7 +10927,7 @@
         <v>45617</v>
       </c>
       <c r="B460" t="n">
-        <v>1.012951050041958</v>
+        <v>1.178873749614573</v>
       </c>
     </row>
     <row r="461">
@@ -10935,7 +10935,7 @@
         <v>45620</v>
       </c>
       <c r="B461" t="n">
-        <v>1.020817565330346</v>
+        <v>1.188028810339411</v>
       </c>
     </row>
     <row r="462">
@@ -10943,7 +10943,7 @@
         <v>45621</v>
       </c>
       <c r="B462" t="n">
-        <v>1.020817565330346</v>
+        <v>1.188028810339411</v>
       </c>
     </row>
     <row r="463">
@@ -10951,7 +10951,7 @@
         <v>45622</v>
       </c>
       <c r="B463" t="n">
-        <v>1.015970732478156</v>
+        <v>1.182388059961612</v>
       </c>
     </row>
     <row r="464">
@@ -10959,7 +10959,7 @@
         <v>45623</v>
       </c>
       <c r="B464" t="n">
-        <v>1.02156323192299</v>
+        <v>1.188896618089841</v>
       </c>
     </row>
     <row r="465">
@@ -10967,7 +10967,7 @@
         <v>45624</v>
       </c>
       <c r="B465" t="n">
-        <v>1.0066499000701</v>
+        <v>1.17154046308123</v>
       </c>
     </row>
     <row r="466">
@@ -10975,7 +10975,7 @@
         <v>45627</v>
       </c>
       <c r="B466" t="n">
-        <v>0.9991932341436545</v>
+        <v>1.162862385576925</v>
       </c>
     </row>
     <row r="467">
@@ -10983,7 +10983,7 @@
         <v>45628</v>
       </c>
       <c r="B467" t="n">
-        <v>0.995464901180432</v>
+        <v>1.158523346824772</v>
       </c>
     </row>
     <row r="468">
@@ -10991,7 +10991,7 @@
         <v>45629</v>
       </c>
       <c r="B468" t="n">
-        <v>0.9917365682172093</v>
+        <v>1.15418430807262</v>
       </c>
     </row>
     <row r="469">
@@ -10999,7 +10999,7 @@
         <v>45630</v>
       </c>
       <c r="B469" t="n">
-        <v>0.9880082352539867</v>
+        <v>1.149845269320467</v>
       </c>
     </row>
     <row r="470">
@@ -11007,7 +11007,7 @@
         <v>45631</v>
       </c>
       <c r="B470" t="n">
-        <v>0.9786874028459303</v>
+        <v>1.138997672440085</v>
       </c>
     </row>
     <row r="471">
@@ -11015,7 +11015,7 @@
         <v>45634</v>
       </c>
       <c r="B471" t="n">
-        <v>0.9591136547890117</v>
+        <v>1.116217718991283</v>
       </c>
     </row>
     <row r="472">
@@ -11023,7 +11023,7 @@
         <v>45635</v>
       </c>
       <c r="B472" t="n">
-        <v>0.9507249056217609</v>
+        <v>1.10645488179894</v>
       </c>
     </row>
     <row r="473">
@@ -11031,7 +11031,7 @@
         <v>45636</v>
       </c>
       <c r="B473" t="n">
-        <v>0.9471829893066995</v>
+        <v>1.102332794984395</v>
       </c>
     </row>
     <row r="474">
@@ -11039,7 +11039,7 @@
         <v>45637</v>
       </c>
       <c r="B474" t="n">
-        <v>0.9842799022907642</v>
+        <v>1.145506230568314</v>
       </c>
     </row>
     <row r="475">
@@ -11047,7 +11047,7 @@
         <v>45638</v>
       </c>
       <c r="B475" t="n">
-        <v>0.9693665704378739</v>
+        <v>1.128150075559703</v>
       </c>
     </row>
     <row r="476">
@@ -11055,7 +11055,7 @@
         <v>45642</v>
       </c>
       <c r="B476" t="n">
-        <v>0.9561309884184336</v>
+        <v>1.112746487989561</v>
       </c>
     </row>
     <row r="477">
@@ -11063,7 +11063,7 @@
         <v>45643</v>
       </c>
       <c r="B477" t="n">
-        <v>0.9544532385849835</v>
+        <v>1.110793920551092</v>
       </c>
     </row>
     <row r="478">
@@ -11071,7 +11071,7 @@
         <v>45644</v>
       </c>
       <c r="B478" t="n">
-        <v>0.9540804052886613</v>
+        <v>1.110360016675877</v>
       </c>
     </row>
     <row r="479">
@@ -11079,7 +11079,7 @@
         <v>45645</v>
       </c>
       <c r="B479" t="n">
-        <v>0.9540804052886613</v>
+        <v>1.110360016675877</v>
       </c>
     </row>
     <row r="480">
@@ -11087,7 +11087,7 @@
         <v>45652</v>
       </c>
       <c r="B480" t="n">
-        <v>0.9540804052886613</v>
+        <v>1.110360016675877</v>
       </c>
     </row>
     <row r="481">
@@ -11095,7 +11095,7 @@
         <v>45664</v>
       </c>
       <c r="B481" t="n">
-        <v>0.9502792881361168</v>
+        <v>1.110360016675877</v>
       </c>
     </row>
     <row r="482">
@@ -11103,7 +11103,7 @@
         <v>45685</v>
       </c>
       <c r="B482" t="n">
-        <v>0.9502792881361168</v>
+        <v>1.110360016675877</v>
       </c>
     </row>
     <row r="483">
@@ -11111,7 +11111,7 @@
         <v>45700</v>
       </c>
       <c r="B483" t="n">
-        <v>0.9502792881361168</v>
+        <v>1.110360016675877</v>
       </c>
     </row>
     <row r="484">
@@ -11119,7 +11119,7 @@
         <v>45706</v>
       </c>
       <c r="B484" t="n">
-        <v>0.9502792881361168</v>
+        <v>1.110360016675877</v>
       </c>
     </row>
     <row r="485">
@@ -11127,7 +11127,7 @@
         <v>45708</v>
       </c>
       <c r="B485" t="n">
-        <v>0.9481718139083956</v>
+        <v>1.10789752470341</v>
       </c>
     </row>
     <row r="486">
@@ -11135,7 +11135,7 @@
         <v>45713</v>
       </c>
       <c r="B486" t="n">
-        <v>0.9368680885051636</v>
+        <v>1.094689613214726</v>
       </c>
     </row>
     <row r="487">
@@ -11143,7 +11143,7 @@
         <v>45715</v>
       </c>
       <c r="B487" t="n">
-        <v>0.9613914249731924</v>
+        <v>1.123344065257974</v>
       </c>
     </row>
     <row r="488">
@@ -11151,7 +11151,7 @@
         <v>45718</v>
       </c>
       <c r="B488" t="n">
-        <v>0.9943446583521062</v>
+        <v>1.161848485191089</v>
       </c>
     </row>
     <row r="489">
@@ -11159,7 +11159,7 @@
         <v>45719</v>
       </c>
       <c r="B489" t="n">
-        <v>0.9866811157058472</v>
+        <v>1.152893968927574</v>
       </c>
     </row>
     <row r="490">
@@ -11167,7 +11167,7 @@
         <v>45720</v>
       </c>
       <c r="B490" t="n">
-        <v>0.9713540304133291</v>
+        <v>1.134984936400544</v>
       </c>
     </row>
     <row r="491">
@@ -11175,7 +11175,7 @@
         <v>45721</v>
       </c>
       <c r="B491" t="n">
-        <v>0.9560269451208111</v>
+        <v>1.117075903873514</v>
       </c>
     </row>
     <row r="492">
@@ -11183,7 +11183,7 @@
         <v>45722</v>
       </c>
       <c r="B492" t="n">
-        <v>0.9543026480254029</v>
+        <v>1.115061137714223</v>
       </c>
     </row>
     <row r="493">
@@ -11191,7 +11191,7 @@
         <v>45736</v>
       </c>
       <c r="B493" t="n">
-        <v>0.9543026480254029</v>
+        <v>1.090906330093391</v>
       </c>
     </row>
     <row r="494">
@@ -11199,7 +11199,7 @@
         <v>45739</v>
       </c>
       <c r="B494" t="n">
-        <v>0.9451181875808417</v>
+        <v>1.080407159774419</v>
       </c>
     </row>
     <row r="495">
@@ -11207,7 +11207,7 @@
         <v>45740</v>
       </c>
       <c r="B495" t="n">
-        <v>0.9478794006356032</v>
+        <v>1.083563626757309</v>
       </c>
     </row>
     <row r="496">
@@ -11215,7 +11215,7 @@
         <v>45741</v>
       </c>
       <c r="B496" t="n">
-        <v>0.9402420028245608</v>
+        <v>1.074832973400381</v>
       </c>
     </row>
     <row r="497">
@@ -11223,7 +11223,7 @@
         <v>45742</v>
       </c>
       <c r="B497" t="n">
-        <v>0.9425528052391839</v>
+        <v>1.077474555698118</v>
       </c>
     </row>
     <row r="498">
@@ -11231,7 +11231,7 @@
         <v>45743</v>
       </c>
       <c r="B498" t="n">
-        <v>0.949955206194502</v>
+        <v>1.08593657356714</v>
       </c>
     </row>
     <row r="499">
@@ -11239,7 +11239,7 @@
         <v>45746</v>
       </c>
       <c r="B499" t="n">
-        <v>0.9516589333985038</v>
+        <v>1.087884180854455</v>
       </c>
     </row>
     <row r="500">
@@ -11247,7 +11247,7 @@
         <v>45775</v>
       </c>
       <c r="B500" t="n">
-        <v>0.9425332221678737</v>
+        <v>1.07745216940746</v>
       </c>
     </row>
     <row r="501">
@@ -11255,7 +11255,7 @@
         <v>45776</v>
       </c>
       <c r="B501" t="n">
-        <v>0.9428269682375292</v>
+        <v>1.077787963767342</v>
       </c>
     </row>
     <row r="502">
@@ -11263,7 +11263,7 @@
         <v>45777</v>
       </c>
       <c r="B502" t="n">
-        <v>0.9364233039190398</v>
+        <v>1.070467646721918</v>
       </c>
     </row>
     <row r="503">
@@ -11271,7 +11271,7 @@
         <v>45781</v>
       </c>
       <c r="B503" t="n">
-        <v>0.936697466917385</v>
+        <v>1.070781054791141</v>
       </c>
     </row>
     <row r="504">
@@ -11279,7 +11279,7 @@
         <v>45782</v>
       </c>
       <c r="B504" t="n">
-        <v>0.9365603854182125</v>
+        <v>1.07062435075653</v>
       </c>
     </row>
     <row r="505">
@@ -11287,7 +11287,7 @@
         <v>45783</v>
       </c>
       <c r="B505" t="n">
-        <v>0.9365603854182125</v>
+        <v>1.067691746680228</v>
       </c>
     </row>
     <row r="506">
@@ -11295,7 +11295,7 @@
         <v>45784</v>
       </c>
       <c r="B506" t="n">
-        <v>0.9490690650322395</v>
+        <v>1.081951813829876</v>
       </c>
     </row>
     <row r="507">
@@ -11303,7 +11303,7 @@
         <v>45785</v>
       </c>
       <c r="B507" t="n">
-        <v>0.9490690650322395</v>
+        <v>1.080451932355738</v>
       </c>
     </row>
     <row r="508">
@@ -11311,7 +11311,7 @@
         <v>45788</v>
       </c>
       <c r="B508" t="n">
-        <v>0.954987965010996</v>
+        <v>1.087190205844033</v>
       </c>
     </row>
     <row r="509">
@@ -11319,7 +11319,7 @@
         <v>45790</v>
       </c>
       <c r="B509" t="n">
-        <v>0.9584488500484086</v>
+        <v>1.09113019299998</v>
       </c>
     </row>
     <row r="510">
@@ -11327,7 +11327,7 @@
         <v>45791</v>
       </c>
       <c r="B510" t="n">
-        <v>0.9514484234954608</v>
+        <v>1.083160673525451</v>
       </c>
     </row>
     <row r="511">
@@ -11335,7 +11335,7 @@
         <v>45792</v>
       </c>
       <c r="B511" t="n">
-        <v>0.9480268666971099</v>
+        <v>1.079265458950822</v>
       </c>
     </row>
     <row r="512">
@@ -11343,7 +11343,7 @@
         <v>45795</v>
       </c>
       <c r="B512" t="n">
-        <v>0.944841279333128</v>
+        <v>1.075638879864099</v>
       </c>
     </row>
     <row r="513">
@@ -11351,7 +11351,7 @@
         <v>45796</v>
       </c>
       <c r="B513" t="n">
-        <v>0.9489510803150553</v>
+        <v>1.080317614611785</v>
       </c>
     </row>
     <row r="514">
@@ -11359,7 +11359,7 @@
         <v>45797</v>
       </c>
       <c r="B514" t="n">
-        <v>0.9489510803150553</v>
+        <v>1.080317614611785</v>
       </c>
     </row>
     <row r="515">
@@ -11367,7 +11367,7 @@
         <v>45798</v>
       </c>
       <c r="B515" t="n">
-        <v>0.9489510803150553</v>
+        <v>1.080317614611785</v>
       </c>
     </row>
     <row r="516">
@@ -11375,7 +11375,7 @@
         <v>45799</v>
       </c>
       <c r="B516" t="n">
-        <v>0.959204613770231</v>
+        <v>1.091990579671227</v>
       </c>
     </row>
     <row r="517">
@@ -11383,7 +11383,7 @@
         <v>45802</v>
       </c>
       <c r="B517" t="n">
-        <v>0.9538282291869927</v>
+        <v>1.085869923834816</v>
       </c>
     </row>
     <row r="518">
@@ -11391,7 +11391,7 @@
         <v>45803</v>
       </c>
       <c r="B518" t="n">
-        <v>0.9538282291869927</v>
+        <v>1.085869923834816</v>
       </c>
     </row>
     <row r="519">
@@ -11399,7 +11399,7 @@
         <v>45804</v>
       </c>
       <c r="B519" t="n">
-        <v>0.9538282291869927</v>
+        <v>1.082403476992209</v>
       </c>
     </row>
     <row r="520">
@@ -11407,7 +11407,7 @@
         <v>45805</v>
       </c>
       <c r="B520" t="n">
-        <v>0.9613976845990874</v>
+        <v>1.090993288665084</v>
       </c>
     </row>
     <row r="521">
@@ -11415,7 +11415,7 @@
         <v>45810</v>
       </c>
       <c r="B521" t="n">
-        <v>0.9613976845990874</v>
+        <v>1.090993288665084</v>
       </c>
     </row>
     <row r="522">
@@ -11423,7 +11423,7 @@
         <v>45811</v>
       </c>
       <c r="B522" t="n">
-        <v>0.9550047489991933</v>
+        <v>1.083738590691414</v>
       </c>
     </row>
     <row r="523">
@@ -11431,7 +11431,7 @@
         <v>45812</v>
       </c>
       <c r="B523" t="n">
-        <v>0.9550047489991933</v>
+        <v>1.083738590691414</v>
       </c>
     </row>
     <row r="524">
@@ -11439,7 +11439,7 @@
         <v>45813</v>
       </c>
       <c r="B524" t="n">
-        <v>0.9550047489991933</v>
+        <v>1.083738590691414</v>
       </c>
     </row>
     <row r="525">
@@ -11447,7 +11447,7 @@
         <v>45816</v>
       </c>
       <c r="B525" t="n">
-        <v>0.9550047489991933</v>
+        <v>1.077751692694621</v>
       </c>
     </row>
     <row r="526">
@@ -11455,7 +11455,7 @@
         <v>45817</v>
       </c>
       <c r="B526" t="n">
-        <v>0.9550047489991933</v>
+        <v>1.077751692694621</v>
       </c>
     </row>
     <row r="527">
@@ -11463,7 +11463,7 @@
         <v>45818</v>
       </c>
       <c r="B527" t="n">
-        <v>0.9550047489991933</v>
+        <v>1.077751692694621</v>
       </c>
     </row>
     <row r="528">
@@ -11471,7 +11471,7 @@
         <v>45819</v>
       </c>
       <c r="B528" t="n">
-        <v>0.9550047489991933</v>
+        <v>1.077751692694621</v>
       </c>
     </row>
     <row r="529">
@@ -11479,7 +11479,7 @@
         <v>45820</v>
       </c>
       <c r="B529" t="n">
-        <v>0.9550047489991933</v>
+        <v>1.077751692694621</v>
       </c>
     </row>
     <row r="530">
@@ -11487,7 +11487,7 @@
         <v>45823</v>
       </c>
       <c r="B530" t="n">
-        <v>0.9575218218297936</v>
+        <v>1.080592285379274</v>
       </c>
     </row>
     <row r="531">
@@ -11495,7 +11495,7 @@
         <v>45824</v>
       </c>
       <c r="B531" t="n">
-        <v>0.9572486511349997</v>
+        <v>1.080284004002644</v>
       </c>
     </row>
     <row r="532">
@@ -11503,7 +11503,7 @@
         <v>45825</v>
       </c>
       <c r="B532" t="n">
-        <v>0.954126700337356</v>
+        <v>1.076760788269743</v>
       </c>
     </row>
     <row r="533">
@@ -11511,7 +11511,7 @@
         <v>45826</v>
       </c>
       <c r="B533" t="n">
-        <v>0.9560388952009128</v>
+        <v>1.078918757906145</v>
       </c>
     </row>
     <row r="534">
@@ -11519,7 +11519,7 @@
         <v>45827</v>
       </c>
       <c r="B534" t="n">
-        <v>0.9542242612997824</v>
+        <v>1.076870888761396</v>
       </c>
     </row>
     <row r="535">
@@ -11527,7 +11527,7 @@
         <v>45830</v>
       </c>
       <c r="B535" t="n">
-        <v>0.954126700337356</v>
+        <v>1.076760788269743</v>
       </c>
     </row>
     <row r="536">
@@ -11535,7 +11535,7 @@
         <v>45831</v>
       </c>
       <c r="B536" t="n">
-        <v>0.9509267007697714</v>
+        <v>1.073149492143518</v>
       </c>
     </row>
     <row r="537">
@@ -11543,7 +11543,7 @@
         <v>45832</v>
       </c>
       <c r="B537" t="n">
-        <v>0.950829139807345</v>
+        <v>1.073039391651865</v>
       </c>
     </row>
     <row r="538">
@@ -11551,7 +11551,7 @@
         <v>45833</v>
       </c>
       <c r="B538" t="n">
-        <v>0.948760847403906</v>
+        <v>1.073039391651865</v>
       </c>
     </row>
     <row r="539">
@@ -11559,7 +11559,7 @@
         <v>45834</v>
       </c>
       <c r="B539" t="n">
-        <v>0.948760847403906</v>
+        <v>1.073039391651865</v>
       </c>
     </row>
     <row r="540">
@@ -11567,7 +11567,7 @@
         <v>45837</v>
       </c>
       <c r="B540" t="n">
-        <v>0.9563165722304379</v>
+        <v>1.081584843747127</v>
       </c>
     </row>
     <row r="541">
@@ -11575,7 +11575,7 @@
         <v>45838</v>
       </c>
       <c r="B541" t="n">
-        <v>0.9563165722304379</v>
+        <v>1.081584843747127</v>
       </c>
     </row>
     <row r="542">
@@ -11583,7 +11583,7 @@
         <v>45839</v>
       </c>
       <c r="B542" t="n">
-        <v>0.9563165722304379</v>
+        <v>1.081584843747127</v>
       </c>
     </row>
     <row r="543">
@@ -11591,7 +11591,7 @@
         <v>45840</v>
       </c>
       <c r="B543" t="n">
-        <v>0.9563165722304379</v>
+        <v>1.081584843747127</v>
       </c>
     </row>
     <row r="544">
@@ -11599,7 +11599,7 @@
         <v>45841</v>
       </c>
       <c r="B544" t="n">
-        <v>0.9563165722304379</v>
+        <v>1.088708584232451</v>
       </c>
     </row>
     <row r="545">
@@ -11607,7 +11607,7 @@
         <v>45844</v>
       </c>
       <c r="B545" t="n">
-        <v>0.9614415476386013</v>
+        <v>1.094543058801719</v>
       </c>
     </row>
     <row r="546">
@@ -11615,7 +11615,7 @@
         <v>45845</v>
       </c>
       <c r="B546" t="n">
-        <v>0.954109185818682</v>
+        <v>1.086195608294377</v>
       </c>
     </row>
     <row r="547">
@@ -11623,7 +11623,7 @@
         <v>45846</v>
       </c>
       <c r="B547" t="n">
-        <v>0.9510188448422238</v>
+        <v>1.082677441981073</v>
       </c>
     </row>
     <row r="548">
@@ -11631,7 +11631,7 @@
         <v>45847</v>
       </c>
       <c r="B548" t="n">
-        <v>0.9510188448422238</v>
+        <v>1.082677441981073</v>
       </c>
     </row>
     <row r="549">
@@ -11639,7 +11639,7 @@
         <v>45851</v>
       </c>
       <c r="B549" t="n">
-        <v>1.021076464401752</v>
+        <v>1.162433805114525</v>
       </c>
     </row>
     <row r="550">
@@ -11647,7 +11647,7 @@
         <v>45852</v>
       </c>
       <c r="B550" t="n">
-        <v>0.9952527226979541</v>
+        <v>1.133035036875725</v>
       </c>
     </row>
     <row r="551">
@@ -11655,7 +11655,7 @@
         <v>45853</v>
       </c>
       <c r="B551" t="n">
-        <v>0.9952527226979541</v>
+        <v>1.133035036875725</v>
       </c>
     </row>
     <row r="552">
@@ -11663,7 +11663,7 @@
         <v>45854</v>
       </c>
       <c r="B552" t="n">
-        <v>0.9952527226979541</v>
+        <v>1.133035036875725</v>
       </c>
     </row>
     <row r="553">
@@ -11671,7 +11671,7 @@
         <v>45855</v>
       </c>
       <c r="B553" t="n">
-        <v>1.008654633310784</v>
+        <v>1.148292301627788</v>
       </c>
     </row>
     <row r="554">
@@ -11679,7 +11679,7 @@
         <v>45858</v>
       </c>
       <c r="B554" t="n">
-        <v>1.008654633310784</v>
+        <v>1.148292301627788</v>
       </c>
     </row>
     <row r="555">
@@ -11687,7 +11687,7 @@
         <v>45859</v>
       </c>
       <c r="B555" t="n">
-        <v>1.008654633310784</v>
+        <v>1.148292301627788</v>
       </c>
     </row>
     <row r="556">
@@ -11695,7 +11695,7 @@
         <v>45860</v>
       </c>
       <c r="B556" t="n">
-        <v>1.026081912058033</v>
+        <v>1.168132204566717</v>
       </c>
     </row>
     <row r="557">
@@ -11703,7 +11703,7 @@
         <v>45861</v>
       </c>
       <c r="B557" t="n">
-        <v>1.020124816775003</v>
+        <v>1.161350411842369</v>
       </c>
     </row>
     <row r="558">
@@ -11711,7 +11711,7 @@
         <v>45862</v>
       </c>
       <c r="B558" t="n">
-        <v>1.013964218236963</v>
+        <v>1.154336942969054</v>
       </c>
     </row>
     <row r="559">
@@ -11719,7 +11719,7 @@
         <v>45865</v>
       </c>
       <c r="B559" t="n">
-        <v>1.013520211135122</v>
+        <v>1.154336942969054</v>
       </c>
     </row>
     <row r="560">
@@ -11727,7 +11727,7 @@
         <v>45866</v>
       </c>
       <c r="B560" t="n">
-        <v>0.9998114918657893</v>
+        <v>1.138723558135159</v>
       </c>
     </row>
     <row r="561">
@@ -11735,7 +11735,7 @@
         <v>45867</v>
       </c>
       <c r="B561" t="n">
-        <v>1.014833732144734</v>
+        <v>1.155832962298617</v>
       </c>
     </row>
     <row r="562">
@@ -11743,7 +11743,7 @@
         <v>45868</v>
       </c>
       <c r="B562" t="n">
-        <v>1.008599132423054</v>
+        <v>1.148732138156886</v>
       </c>
     </row>
     <row r="563">
@@ -11751,7 +11751,7 @@
         <v>45869</v>
       </c>
       <c r="B563" t="n">
-        <v>1.008599132423054</v>
+        <v>1.130400633696039</v>
       </c>
     </row>
     <row r="564">
@@ -11759,7 +11759,7 @@
         <v>45872</v>
       </c>
       <c r="B564" t="n">
-        <v>0.9858883556565937</v>
+        <v>1.104947234398678</v>
       </c>
     </row>
     <row r="565">
@@ -11767,7 +11767,7 @@
         <v>45873</v>
       </c>
       <c r="B565" t="n">
-        <v>0.992600067002311</v>
+        <v>1.11246947243606</v>
       </c>
     </row>
     <row r="566">
@@ -11775,7 +11775,7 @@
         <v>45874</v>
       </c>
       <c r="B566" t="n">
-        <v>0.9921488595168846</v>
+        <v>1.111963775761278</v>
       </c>
     </row>
     <row r="567">
@@ -11783,7 +11783,7 @@
         <v>45875</v>
       </c>
       <c r="B567" t="n">
-        <v>0.9887648033761868</v>
+        <v>1.108171050700413</v>
       </c>
     </row>
     <row r="568">
@@ -11791,7 +11791,7 @@
         <v>45876</v>
       </c>
       <c r="B568" t="n">
-        <v>0.9914532479768523</v>
+        <v>1.111184160054323</v>
       </c>
     </row>
     <row r="569">
@@ -11799,7 +11799,7 @@
         <v>45880</v>
       </c>
       <c r="B569" t="n">
-        <v>0.9914532479768523</v>
+        <v>1.108950666407369</v>
       </c>
     </row>
     <row r="570">
@@ -11807,7 +11807,7 @@
         <v>45882</v>
       </c>
       <c r="B570" t="n">
-        <v>0.9914532479768523</v>
+        <v>1.108950666407369</v>
       </c>
     </row>
     <row r="571">
@@ -11815,7 +11815,7 @@
         <v>45883</v>
       </c>
       <c r="B571" t="n">
-        <v>0.9918129984058112</v>
+        <v>1.109353050966347</v>
       </c>
     </row>
     <row r="572">
@@ -11823,7 +11823,7 @@
         <v>45886</v>
       </c>
       <c r="B572" t="n">
-        <v>0.9918129984058112</v>
+        <v>1.103825557814076</v>
       </c>
     </row>
     <row r="573">
@@ -11831,7 +11831,7 @@
         <v>45887</v>
       </c>
       <c r="B573" t="n">
-        <v>0.9918129984058112</v>
+        <v>1.099039299375712</v>
       </c>
     </row>
     <row r="574">
@@ -11839,7 +11839,7 @@
         <v>45889</v>
       </c>
       <c r="B574" t="n">
-        <v>0.9915454315500891</v>
+        <v>1.098742805490149</v>
       </c>
     </row>
     <row r="575">
@@ -11847,7 +11847,7 @@
         <v>45890</v>
       </c>
       <c r="B575" t="n">
-        <v>0.9902649330262778</v>
+        <v>1.097323870466387</v>
       </c>
     </row>
     <row r="576">
@@ -11855,7 +11855,7 @@
         <v>45893</v>
       </c>
       <c r="B576" t="n">
-        <v>0.9902649330262778</v>
+        <v>1.08762428478156</v>
       </c>
     </row>
     <row r="577">
@@ -11863,7 +11863,7 @@
         <v>45894</v>
       </c>
       <c r="B577" t="n">
-        <v>1.007657622674804</v>
+        <v>1.106726962265651</v>
       </c>
     </row>
     <row r="578">
@@ -11871,7 +11871,7 @@
         <v>45895</v>
       </c>
       <c r="B578" t="n">
-        <v>1.020711781091713</v>
+        <v>1.12106455944606</v>
       </c>
     </row>
     <row r="579">
@@ -11879,7 +11879,7 @@
         <v>45896</v>
       </c>
       <c r="B579" t="n">
-        <v>1.029427408277006</v>
+        <v>1.130637076322789</v>
       </c>
     </row>
     <row r="580">
@@ -11887,7 +11887,7 @@
         <v>45897</v>
       </c>
       <c r="B580" t="n">
-        <v>1.019766945401272</v>
+        <v>1.120026830846592</v>
       </c>
     </row>
     <row r="581">
@@ -11895,7 +11895,7 @@
         <v>45900</v>
       </c>
       <c r="B581" t="n">
-        <v>1.004302491855687</v>
+        <v>1.103041966830804</v>
       </c>
     </row>
     <row r="582">
@@ -11903,7 +11903,7 @@
         <v>45901</v>
       </c>
       <c r="B582" t="n">
-        <v>1.017453062077743</v>
+        <v>1.117485454684629</v>
       </c>
     </row>
     <row r="583">
@@ -11911,7 +11911,7 @@
         <v>45902</v>
       </c>
       <c r="B583" t="n">
-        <v>1.009913658915245</v>
+        <v>1.109204804023565</v>
       </c>
     </row>
     <row r="584">
@@ -11919,7 +11919,7 @@
         <v>45918</v>
       </c>
       <c r="B584" t="n">
-        <v>0.931338037720407</v>
+        <v>1.022903905190228</v>
       </c>
     </row>
     <row r="585">
@@ -11927,7 +11927,7 @@
         <v>45923</v>
       </c>
       <c r="B585" t="n">
-        <v>1.009431599889509</v>
+        <v>1.108675350656489</v>
       </c>
     </row>
     <row r="586">
@@ -11935,7 +11935,7 @@
         <v>45924</v>
       </c>
       <c r="B586" t="n">
-        <v>1.006539245735098</v>
+        <v>1.105498630454035</v>
       </c>
     </row>
     <row r="587">
@@ -11943,7 +11943,7 @@
         <v>45925</v>
       </c>
       <c r="B587" t="n">
-        <v>1.006539245735098</v>
+        <v>1.104651505066714</v>
       </c>
     </row>
     <row r="588">
@@ -11951,7 +11951,7 @@
         <v>45928</v>
       </c>
       <c r="B588" t="n">
-        <v>1.016959705717785</v>
+        <v>1.116087697795549</v>
       </c>
     </row>
     <row r="589">
@@ -11959,7 +11959,7 @@
         <v>45937</v>
       </c>
       <c r="B589" t="n">
-        <v>1.016959705717785</v>
+        <v>1.116087697795549</v>
       </c>
     </row>
   </sheetData>

--- a/CATI/saved_states/NABIL_backtest_results.xlsx
+++ b/CATI/saved_states/NABIL_backtest_results.xlsx
@@ -3950,7 +3950,7 @@
         <v>457</v>
       </c>
       <c r="C319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
@@ -4049,7 +4049,7 @@
         <v>434</v>
       </c>
       <c r="C328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -4060,7 +4060,7 @@
         <v>434</v>
       </c>
       <c r="C329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
@@ -4082,7 +4082,7 @@
         <v>439</v>
       </c>
       <c r="C331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
@@ -4126,7 +4126,7 @@
         <v>433</v>
       </c>
       <c r="C335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
@@ -4137,7 +4137,7 @@
         <v>429.9</v>
       </c>
       <c r="C336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
@@ -4236,7 +4236,7 @@
         <v>426</v>
       </c>
       <c r="C345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -4247,7 +4247,7 @@
         <v>424</v>
       </c>
       <c r="C346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
@@ -4291,7 +4291,7 @@
         <v>422</v>
       </c>
       <c r="C350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
@@ -4357,7 +4357,7 @@
         <v>458</v>
       </c>
       <c r="C356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -4379,7 +4379,7 @@
         <v>514</v>
       </c>
       <c r="C358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
@@ -4423,7 +4423,7 @@
         <v>478.3</v>
       </c>
       <c r="C362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
@@ -4456,7 +4456,7 @@
         <v>483</v>
       </c>
       <c r="C365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
@@ -4489,7 +4489,7 @@
         <v>474</v>
       </c>
       <c r="C368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
@@ -4533,7 +4533,7 @@
         <v>479.1</v>
       </c>
       <c r="C372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
@@ -4544,7 +4544,7 @@
         <v>475</v>
       </c>
       <c r="C373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
@@ -4555,7 +4555,7 @@
         <v>469</v>
       </c>
       <c r="C374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
@@ -4566,7 +4566,7 @@
         <v>472</v>
       </c>
       <c r="C375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
@@ -4610,7 +4610,7 @@
         <v>458.2</v>
       </c>
       <c r="C379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
@@ -4621,7 +4621,7 @@
         <v>456</v>
       </c>
       <c r="C380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
@@ -4654,7 +4654,7 @@
         <v>458.8</v>
       </c>
       <c r="C383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
@@ -4665,7 +4665,7 @@
         <v>477.1</v>
       </c>
       <c r="C384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
@@ -4676,7 +4676,7 @@
         <v>484</v>
       </c>
       <c r="C385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
@@ -4709,7 +4709,7 @@
         <v>490</v>
       </c>
       <c r="C388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
@@ -4731,7 +4731,7 @@
         <v>497.1</v>
       </c>
       <c r="C390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
@@ -4841,7 +4841,7 @@
         <v>633.4</v>
       </c>
       <c r="C400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
@@ -4951,7 +4951,7 @@
         <v>645</v>
       </c>
       <c r="C410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
@@ -4995,7 +4995,7 @@
         <v>654</v>
       </c>
       <c r="C414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
@@ -5006,7 +5006,7 @@
         <v>636.9</v>
       </c>
       <c r="C415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
@@ -5039,7 +5039,7 @@
         <v>605</v>
       </c>
       <c r="C418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
@@ -5050,7 +5050,7 @@
         <v>595</v>
       </c>
       <c r="C419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
@@ -5061,7 +5061,7 @@
         <v>611.7</v>
       </c>
       <c r="C420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
@@ -5094,7 +5094,7 @@
         <v>592</v>
       </c>
       <c r="C423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
@@ -5116,7 +5116,7 @@
         <v>571</v>
       </c>
       <c r="C425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
@@ -5138,7 +5138,7 @@
         <v>568</v>
       </c>
       <c r="C427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428">
@@ -5182,7 +5182,7 @@
         <v>550</v>
       </c>
       <c r="C431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432">
@@ -5226,7 +5226,7 @@
         <v>591.5</v>
       </c>
       <c r="C435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436">
@@ -5248,7 +5248,7 @@
         <v>593</v>
       </c>
       <c r="C437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
@@ -5281,7 +5281,7 @@
         <v>607.1</v>
       </c>
       <c r="C440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
@@ -5435,7 +5435,7 @@
         <v>566.2</v>
       </c>
       <c r="C454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455">
@@ -5446,7 +5446,7 @@
         <v>561</v>
       </c>
       <c r="C455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
@@ -5457,7 +5457,7 @@
         <v>562</v>
       </c>
       <c r="C456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
@@ -5512,7 +5512,7 @@
         <v>558</v>
       </c>
       <c r="C461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462">
@@ -5578,7 +5578,7 @@
         <v>534</v>
       </c>
       <c r="C467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468">
@@ -5589,7 +5589,7 @@
         <v>532</v>
       </c>
       <c r="C468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
@@ -5633,7 +5633,7 @@
         <v>510</v>
       </c>
       <c r="C472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473">
@@ -5721,7 +5721,7 @@
         <v>502</v>
       </c>
       <c r="C480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481">
@@ -5732,7 +5732,7 @@
         <v>500</v>
       </c>
       <c r="C481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482">
@@ -5765,7 +5765,7 @@
         <v>496</v>
       </c>
       <c r="C484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485">
@@ -5853,7 +5853,7 @@
         <v>498.1</v>
       </c>
       <c r="C492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493">
@@ -5875,7 +5875,7 @@
         <v>482.62</v>
       </c>
       <c r="C494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495">
@@ -5930,7 +5930,7 @@
         <v>485.96</v>
       </c>
       <c r="C499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
@@ -5985,7 +5985,7 @@
         <v>478.25</v>
       </c>
       <c r="C504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505">
@@ -6062,7 +6062,7 @@
         <v>482.11</v>
       </c>
       <c r="C511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512">
@@ -6260,7 +6260,7 @@
         <v>489.44</v>
       </c>
       <c r="C529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530">
@@ -6348,7 +6348,7 @@
         <v>487.3</v>
       </c>
       <c r="C537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538">
@@ -6381,7 +6381,7 @@
         <v>489.82</v>
       </c>
       <c r="C540" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541">
@@ -6392,7 +6392,7 @@
         <v>491.81</v>
       </c>
       <c r="C541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542">
@@ -6425,7 +6425,7 @@
         <v>498.22</v>
       </c>
       <c r="C544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
@@ -6469,7 +6469,7 @@
         <v>499.01</v>
       </c>
       <c r="C548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549">
@@ -6491,7 +6491,7 @@
         <v>522.22</v>
       </c>
       <c r="C550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551">
@@ -6524,7 +6524,7 @@
         <v>548.66</v>
       </c>
       <c r="C553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
@@ -6557,7 +6557,7 @@
         <v>554.63</v>
       </c>
       <c r="C556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557">
@@ -6568,7 +6568,7 @@
         <v>551.41</v>
       </c>
       <c r="C557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558">
@@ -6612,7 +6612,7 @@
         <v>548.55</v>
       </c>
       <c r="C561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562">
@@ -6645,7 +6645,7 @@
         <v>524.4</v>
       </c>
       <c r="C564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565">
@@ -6700,7 +6700,7 @@
         <v>526.3</v>
       </c>
       <c r="C569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570">
@@ -6810,7 +6810,7 @@
         <v>533.87</v>
       </c>
       <c r="C579" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580">
@@ -6854,7 +6854,7 @@
         <v>523.75</v>
       </c>
       <c r="C583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584">
@@ -6909,7 +6909,7 @@
         <v>521</v>
       </c>
       <c r="C588" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589">
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3803056027164686</v>
+        <v>0.465195246179966</v>
       </c>
     </row>
     <row r="3">
@@ -6982,7 +6982,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5917225950782998</v>
+        <v>0.6476510067114094</v>
       </c>
     </row>
   </sheetData>
